--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +705,26 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>614300</v>
+        <v>433700</v>
       </c>
       <c r="E8" s="3">
-        <v>491100</v>
+        <v>599200</v>
       </c>
       <c r="F8" s="3">
-        <v>193200</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>479100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>188500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,23 +735,26 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>278800</v>
+        <v>211200</v>
       </c>
       <c r="E9" s="3">
-        <v>202300</v>
+        <v>272000</v>
       </c>
       <c r="F9" s="3">
-        <v>63500</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>197300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>62000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -759,23 +765,26 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>335500</v>
+        <v>222500</v>
       </c>
       <c r="E10" s="3">
-        <v>288800</v>
+        <v>327300</v>
       </c>
       <c r="F10" s="3">
-        <v>129700</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>281700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>126500</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,23 +812,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,23 +869,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>8200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -880,24 +899,27 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E15" s="3">
         <v>1900</v>
       </c>
-      <c r="E15" s="3">
-        <v>1600</v>
-      </c>
       <c r="F15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G15" s="3">
         <v>900</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +943,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>448200</v>
+        <v>332800</v>
       </c>
       <c r="E17" s="3">
-        <v>375100</v>
+        <v>437200</v>
       </c>
       <c r="F17" s="3">
-        <v>151900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>365900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>148200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,23 +970,26 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>166100</v>
+        <v>100900</v>
       </c>
       <c r="E18" s="3">
-        <v>116000</v>
+        <v>162000</v>
       </c>
       <c r="F18" s="3">
-        <v>41300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>113200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>40300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,8 +1017,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -999,8 +1032,8 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>168000</v>
+        <v>102400</v>
       </c>
       <c r="E21" s="3">
-        <v>117600</v>
+        <v>163900</v>
       </c>
       <c r="F21" s="3">
-        <v>42300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>114700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>41200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,23 +1104,26 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>166100</v>
+        <v>100900</v>
       </c>
       <c r="E23" s="3">
-        <v>116000</v>
+        <v>162000</v>
       </c>
       <c r="F23" s="3">
-        <v>41300</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>113200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>40300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,23 +1134,26 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>42600</v>
+        <v>26100</v>
       </c>
       <c r="E24" s="3">
-        <v>39600</v>
+        <v>41500</v>
       </c>
       <c r="F24" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>38600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7400</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,23 +1194,26 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>123500</v>
+        <v>74800</v>
       </c>
       <c r="E26" s="3">
-        <v>76400</v>
+        <v>120500</v>
       </c>
       <c r="F26" s="3">
-        <v>33800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>74600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>33000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,23 +1224,26 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>123500</v>
+        <v>74800</v>
       </c>
       <c r="E27" s="3">
-        <v>76400</v>
+        <v>120500</v>
       </c>
       <c r="F27" s="3">
-        <v>33800</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>74600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>33000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,9 +1374,12 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1323,8 +1392,8 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1335,23 +1404,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>123500</v>
+        <v>74800</v>
       </c>
       <c r="E33" s="3">
-        <v>76400</v>
+        <v>120500</v>
       </c>
       <c r="F33" s="3">
-        <v>33800</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>74600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>33000</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,23 +1464,26 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>123500</v>
+        <v>74800</v>
       </c>
       <c r="E35" s="3">
-        <v>76400</v>
+        <v>120500</v>
       </c>
       <c r="F35" s="3">
-        <v>33800</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>74600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>33000</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1560,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>453600</v>
+        <v>239000</v>
       </c>
       <c r="E41" s="3">
-        <v>170800</v>
+        <v>443100</v>
       </c>
       <c r="F41" s="3">
-        <v>33500</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>166800</v>
+      </c>
+      <c r="G41" s="3">
+        <v>32700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,23 +1617,26 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>2300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,24 +1677,27 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="3">
-        <v>1900</v>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1609,9 +1707,12 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1636,23 +1737,26 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2275400</v>
+        <v>1548200</v>
       </c>
       <c r="E47" s="3">
-        <v>2406400</v>
+        <v>2222800</v>
       </c>
       <c r="F47" s="3">
-        <v>1058300</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>2350700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1033800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1663,23 +1767,26 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
-        <v>3200</v>
-      </c>
       <c r="F48" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>3100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1690,24 +1797,27 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,23 +1887,26 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31200</v>
+        <v>2300</v>
       </c>
       <c r="E52" s="3">
-        <v>16100</v>
+        <v>30500</v>
       </c>
       <c r="F52" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>15800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>7800</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1947,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2777000</v>
+        <v>1825800</v>
       </c>
       <c r="E54" s="3">
-        <v>2613600</v>
+        <v>2712800</v>
       </c>
       <c r="F54" s="3">
-        <v>1120100</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>2553100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1094100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,8 +2008,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1905,9 +2035,12 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1932,23 +2065,26 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>105000</v>
+        <v>29800</v>
       </c>
       <c r="E59" s="3">
-        <v>64900</v>
+        <v>102500</v>
       </c>
       <c r="F59" s="3">
-        <v>21200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>63400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>20700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,9 +2095,12 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1986,23 +2125,26 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1594200</v>
+        <v>932400</v>
       </c>
       <c r="E61" s="3">
-        <v>1749900</v>
+        <v>1557300</v>
       </c>
       <c r="F61" s="3">
-        <v>887300</v>
+        <v>1709400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>866700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2013,24 +2155,27 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2275,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2340000</v>
+        <v>1321400</v>
       </c>
       <c r="E66" s="3">
-        <v>2350900</v>
+        <v>2285900</v>
       </c>
       <c r="F66" s="3">
-        <v>959500</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>2296500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>937300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,23 +2439,26 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>305300</v>
+        <v>373100</v>
       </c>
       <c r="E72" s="3">
-        <v>181700</v>
+        <v>298200</v>
       </c>
       <c r="F72" s="3">
-        <v>105300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>177500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>102900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2559,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>437000</v>
+        <v>504400</v>
       </c>
       <c r="E76" s="3">
-        <v>262700</v>
+        <v>426900</v>
       </c>
       <c r="F76" s="3">
-        <v>160500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>256700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>156800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,23 +2654,26 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>123500</v>
+        <v>74800</v>
       </c>
       <c r="E81" s="3">
-        <v>76400</v>
+        <v>120500</v>
       </c>
       <c r="F81" s="3">
-        <v>33800</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>74600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>33000</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,23 +2701,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
-        <v>1600</v>
-      </c>
       <c r="F83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2878,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>191200</v>
+        <v>181800</v>
       </c>
       <c r="E89" s="3">
-        <v>184600</v>
+        <v>186500</v>
       </c>
       <c r="F89" s="3">
-        <v>54500</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>180100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>53200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,22 +2925,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-2100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3012,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>92000</v>
+        <v>690900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1375100</v>
+        <v>89800</v>
       </c>
       <c r="F94" s="3">
-        <v>-674400</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-1341400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-657900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3176,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1077100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
-        <v>1328200</v>
-      </c>
       <c r="F100" s="3">
-        <v>615700</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>1295600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>600600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,24 +3206,27 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,23 +3236,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>282800</v>
+        <v>-203800</v>
       </c>
       <c r="E102" s="3">
-        <v>137300</v>
+        <v>275900</v>
       </c>
       <c r="F102" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>134000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-3800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>433700</v>
+        <v>450000</v>
       </c>
       <c r="E8" s="3">
-        <v>599200</v>
+        <v>621800</v>
       </c>
       <c r="F8" s="3">
-        <v>479100</v>
+        <v>497100</v>
       </c>
       <c r="G8" s="3">
-        <v>188500</v>
+        <v>195600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>211200</v>
+        <v>219200</v>
       </c>
       <c r="E9" s="3">
-        <v>272000</v>
+        <v>282200</v>
       </c>
       <c r="F9" s="3">
-        <v>197300</v>
+        <v>204800</v>
       </c>
       <c r="G9" s="3">
-        <v>62000</v>
+        <v>64300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>222500</v>
+        <v>230800</v>
       </c>
       <c r="E10" s="3">
-        <v>327300</v>
+        <v>339600</v>
       </c>
       <c r="F10" s="3">
-        <v>281700</v>
+        <v>292300</v>
       </c>
       <c r="G10" s="3">
-        <v>126500</v>
+        <v>131300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E15" s="3">
         <v>1900</v>
       </c>
       <c r="F15" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G15" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>332800</v>
+        <v>345300</v>
       </c>
       <c r="E17" s="3">
-        <v>437200</v>
+        <v>453600</v>
       </c>
       <c r="F17" s="3">
-        <v>365900</v>
+        <v>379700</v>
       </c>
       <c r="G17" s="3">
-        <v>148200</v>
+        <v>153700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100900</v>
+        <v>104700</v>
       </c>
       <c r="E18" s="3">
-        <v>162000</v>
+        <v>168100</v>
       </c>
       <c r="F18" s="3">
-        <v>113200</v>
+        <v>117400</v>
       </c>
       <c r="G18" s="3">
-        <v>40300</v>
+        <v>41800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>102400</v>
+        <v>106300</v>
       </c>
       <c r="E21" s="3">
-        <v>163900</v>
+        <v>170100</v>
       </c>
       <c r="F21" s="3">
-        <v>114700</v>
+        <v>119000</v>
       </c>
       <c r="G21" s="3">
-        <v>41200</v>
+        <v>42800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100900</v>
+        <v>104700</v>
       </c>
       <c r="E23" s="3">
-        <v>162000</v>
+        <v>168100</v>
       </c>
       <c r="F23" s="3">
-        <v>113200</v>
+        <v>117400</v>
       </c>
       <c r="G23" s="3">
-        <v>40300</v>
+        <v>41800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26100</v>
+        <v>27100</v>
       </c>
       <c r="E24" s="3">
-        <v>41500</v>
+        <v>43100</v>
       </c>
       <c r="F24" s="3">
-        <v>38600</v>
+        <v>40100</v>
       </c>
       <c r="G24" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>74800</v>
+        <v>77600</v>
       </c>
       <c r="E26" s="3">
-        <v>120500</v>
+        <v>125000</v>
       </c>
       <c r="F26" s="3">
-        <v>74600</v>
+        <v>77400</v>
       </c>
       <c r="G26" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>74800</v>
+        <v>77600</v>
       </c>
       <c r="E27" s="3">
-        <v>120500</v>
+        <v>125000</v>
       </c>
       <c r="F27" s="3">
-        <v>74600</v>
+        <v>77400</v>
       </c>
       <c r="G27" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>74800</v>
+        <v>77600</v>
       </c>
       <c r="E33" s="3">
-        <v>120500</v>
+        <v>125000</v>
       </c>
       <c r="F33" s="3">
-        <v>74600</v>
+        <v>77400</v>
       </c>
       <c r="G33" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>74800</v>
+        <v>77600</v>
       </c>
       <c r="E35" s="3">
-        <v>120500</v>
+        <v>125000</v>
       </c>
       <c r="F35" s="3">
-        <v>74600</v>
+        <v>77400</v>
       </c>
       <c r="G35" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>239000</v>
+        <v>247700</v>
       </c>
       <c r="E41" s="3">
-        <v>443100</v>
+        <v>459200</v>
       </c>
       <c r="F41" s="3">
-        <v>166800</v>
+        <v>172900</v>
       </c>
       <c r="G41" s="3">
-        <v>32700</v>
+        <v>33900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1636,7 +1636,7 @@
         <v>1100</v>
       </c>
       <c r="G43" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1693,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1548200</v>
+        <v>1604200</v>
       </c>
       <c r="E47" s="3">
-        <v>2222800</v>
+        <v>2303200</v>
       </c>
       <c r="F47" s="3">
-        <v>2350700</v>
+        <v>2435800</v>
       </c>
       <c r="G47" s="3">
-        <v>1033800</v>
+        <v>1071200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="E48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G48" s="3">
         <v>2700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E52" s="3">
-        <v>30500</v>
+        <v>31600</v>
       </c>
       <c r="F52" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="G52" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1825800</v>
+        <v>1891800</v>
       </c>
       <c r="E54" s="3">
-        <v>2712800</v>
+        <v>2810900</v>
       </c>
       <c r="F54" s="3">
-        <v>2553100</v>
+        <v>2645500</v>
       </c>
       <c r="G54" s="3">
-        <v>1094100</v>
+        <v>1133700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>29800</v>
+        <v>30800</v>
       </c>
       <c r="E59" s="3">
-        <v>102500</v>
+        <v>106200</v>
       </c>
       <c r="F59" s="3">
-        <v>63400</v>
+        <v>65700</v>
       </c>
       <c r="G59" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>932400</v>
+        <v>966100</v>
       </c>
       <c r="E61" s="3">
-        <v>1557300</v>
+        <v>1613600</v>
       </c>
       <c r="F61" s="3">
-        <v>1709400</v>
+        <v>1771200</v>
       </c>
       <c r="G61" s="3">
-        <v>866700</v>
+        <v>898100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>50400</v>
+        <v>52200</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1321400</v>
+        <v>1369200</v>
       </c>
       <c r="E66" s="3">
-        <v>2285900</v>
+        <v>2368600</v>
       </c>
       <c r="F66" s="3">
-        <v>2296500</v>
+        <v>2379500</v>
       </c>
       <c r="G66" s="3">
-        <v>937300</v>
+        <v>971300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>373100</v>
+        <v>386600</v>
       </c>
       <c r="E72" s="3">
-        <v>298200</v>
+        <v>309000</v>
       </c>
       <c r="F72" s="3">
-        <v>177500</v>
+        <v>183900</v>
       </c>
       <c r="G72" s="3">
-        <v>102900</v>
+        <v>106600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>504400</v>
+        <v>522600</v>
       </c>
       <c r="E76" s="3">
-        <v>426900</v>
+        <v>442300</v>
       </c>
       <c r="F76" s="3">
-        <v>256700</v>
+        <v>266000</v>
       </c>
       <c r="G76" s="3">
-        <v>156800</v>
+        <v>162500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>74800</v>
+        <v>77600</v>
       </c>
       <c r="E81" s="3">
-        <v>120500</v>
+        <v>125000</v>
       </c>
       <c r="F81" s="3">
-        <v>74600</v>
+        <v>77400</v>
       </c>
       <c r="G81" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
         <v>1900</v>
       </c>
       <c r="F83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>181800</v>
+        <v>188700</v>
       </c>
       <c r="E89" s="3">
-        <v>186500</v>
+        <v>193500</v>
       </c>
       <c r="F89" s="3">
-        <v>180100</v>
+        <v>186900</v>
       </c>
       <c r="G89" s="3">
-        <v>53200</v>
+        <v>55200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2935,13 +2935,13 @@
         <v>-600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>690900</v>
+        <v>716900</v>
       </c>
       <c r="E94" s="3">
-        <v>89800</v>
+        <v>93100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1341400</v>
+        <v>-1391900</v>
       </c>
       <c r="G94" s="3">
-        <v>-657900</v>
+        <v>-682600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1077100</v>
+        <v>-1117600</v>
       </c>
       <c r="E100" s="3">
         <v>-400</v>
       </c>
       <c r="F100" s="3">
-        <v>1295600</v>
+        <v>1344400</v>
       </c>
       <c r="G100" s="3">
-        <v>600600</v>
+        <v>623200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-203800</v>
+        <v>-211500</v>
       </c>
       <c r="E102" s="3">
-        <v>275900</v>
+        <v>286300</v>
       </c>
       <c r="F102" s="3">
-        <v>134000</v>
+        <v>139000</v>
       </c>
       <c r="G102" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>450000</v>
+        <v>471400</v>
       </c>
       <c r="E8" s="3">
-        <v>621800</v>
+        <v>651300</v>
       </c>
       <c r="F8" s="3">
-        <v>497100</v>
+        <v>520700</v>
       </c>
       <c r="G8" s="3">
-        <v>195600</v>
+        <v>204900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>219200</v>
+        <v>229600</v>
       </c>
       <c r="E9" s="3">
-        <v>282200</v>
+        <v>295600</v>
       </c>
       <c r="F9" s="3">
-        <v>204800</v>
+        <v>214500</v>
       </c>
       <c r="G9" s="3">
-        <v>64300</v>
+        <v>67300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>230800</v>
+        <v>241800</v>
       </c>
       <c r="E10" s="3">
-        <v>339600</v>
+        <v>355700</v>
       </c>
       <c r="F10" s="3">
-        <v>292300</v>
+        <v>306200</v>
       </c>
       <c r="G10" s="3">
-        <v>131300</v>
+        <v>137500</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -828,7 +828,7 @@
         <v>700</v>
       </c>
       <c r="G12" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -909,10 +909,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E15" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F15" s="3">
         <v>1600</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>345300</v>
+        <v>361700</v>
       </c>
       <c r="E17" s="3">
-        <v>453600</v>
+        <v>475200</v>
       </c>
       <c r="F17" s="3">
-        <v>379700</v>
+        <v>397700</v>
       </c>
       <c r="G17" s="3">
-        <v>153700</v>
+        <v>161000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>104700</v>
+        <v>109700</v>
       </c>
       <c r="E18" s="3">
-        <v>168100</v>
+        <v>176100</v>
       </c>
       <c r="F18" s="3">
-        <v>117400</v>
+        <v>123000</v>
       </c>
       <c r="G18" s="3">
-        <v>41800</v>
+        <v>43800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>106300</v>
+        <v>111300</v>
       </c>
       <c r="E21" s="3">
-        <v>170100</v>
+        <v>178100</v>
       </c>
       <c r="F21" s="3">
-        <v>119000</v>
+        <v>124700</v>
       </c>
       <c r="G21" s="3">
-        <v>42800</v>
+        <v>44800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>104700</v>
+        <v>109700</v>
       </c>
       <c r="E23" s="3">
-        <v>168100</v>
+        <v>176100</v>
       </c>
       <c r="F23" s="3">
-        <v>117400</v>
+        <v>123000</v>
       </c>
       <c r="G23" s="3">
-        <v>41800</v>
+        <v>43800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27100</v>
+        <v>28400</v>
       </c>
       <c r="E24" s="3">
-        <v>43100</v>
+        <v>45200</v>
       </c>
       <c r="F24" s="3">
-        <v>40100</v>
+        <v>42000</v>
       </c>
       <c r="G24" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>77600</v>
+        <v>81300</v>
       </c>
       <c r="E26" s="3">
-        <v>125000</v>
+        <v>131000</v>
       </c>
       <c r="F26" s="3">
-        <v>77400</v>
+        <v>81000</v>
       </c>
       <c r="G26" s="3">
-        <v>34200</v>
+        <v>35800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>77600</v>
+        <v>81300</v>
       </c>
       <c r="E27" s="3">
-        <v>125000</v>
+        <v>131000</v>
       </c>
       <c r="F27" s="3">
-        <v>77400</v>
+        <v>81000</v>
       </c>
       <c r="G27" s="3">
-        <v>34200</v>
+        <v>35800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>77600</v>
+        <v>81300</v>
       </c>
       <c r="E33" s="3">
-        <v>125000</v>
+        <v>131000</v>
       </c>
       <c r="F33" s="3">
-        <v>77400</v>
+        <v>81000</v>
       </c>
       <c r="G33" s="3">
-        <v>34200</v>
+        <v>35800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>77600</v>
+        <v>81300</v>
       </c>
       <c r="E35" s="3">
-        <v>125000</v>
+        <v>131000</v>
       </c>
       <c r="F35" s="3">
-        <v>77400</v>
+        <v>81000</v>
       </c>
       <c r="G35" s="3">
-        <v>34200</v>
+        <v>35800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>247700</v>
+        <v>259400</v>
       </c>
       <c r="E41" s="3">
-        <v>459200</v>
+        <v>481000</v>
       </c>
       <c r="F41" s="3">
-        <v>172900</v>
+        <v>181100</v>
       </c>
       <c r="G41" s="3">
-        <v>33900</v>
+        <v>35500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1633,10 +1633,10 @@
         <v>3</v>
       </c>
       <c r="F43" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G43" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1693,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="F45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1604200</v>
+        <v>1680300</v>
       </c>
       <c r="E47" s="3">
-        <v>2303200</v>
+        <v>2412400</v>
       </c>
       <c r="F47" s="3">
-        <v>2435800</v>
+        <v>2551300</v>
       </c>
       <c r="G47" s="3">
-        <v>1071200</v>
+        <v>1122000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="E48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G48" s="3">
         <v>2800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,7 +1807,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E49" s="3">
         <v>600</v>
@@ -1816,7 +1816,7 @@
         <v>500</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E52" s="3">
-        <v>31600</v>
+        <v>33100</v>
       </c>
       <c r="F52" s="3">
-        <v>16300</v>
+        <v>17100</v>
       </c>
       <c r="G52" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1891800</v>
+        <v>1981600</v>
       </c>
       <c r="E54" s="3">
-        <v>2810900</v>
+        <v>2944200</v>
       </c>
       <c r="F54" s="3">
-        <v>2645500</v>
+        <v>2771000</v>
       </c>
       <c r="G54" s="3">
-        <v>1133700</v>
+        <v>1187500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30800</v>
+        <v>32300</v>
       </c>
       <c r="E59" s="3">
-        <v>106200</v>
+        <v>111300</v>
       </c>
       <c r="F59" s="3">
-        <v>65700</v>
+        <v>68800</v>
       </c>
       <c r="G59" s="3">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>966100</v>
+        <v>1011900</v>
       </c>
       <c r="E61" s="3">
-        <v>1613600</v>
+        <v>1690200</v>
       </c>
       <c r="F61" s="3">
-        <v>1771200</v>
+        <v>1855200</v>
       </c>
       <c r="G61" s="3">
-        <v>898100</v>
+        <v>940700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>52200</v>
+        <v>54700</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1369200</v>
+        <v>1434100</v>
       </c>
       <c r="E66" s="3">
-        <v>2368600</v>
+        <v>2480900</v>
       </c>
       <c r="F66" s="3">
-        <v>2379500</v>
+        <v>2492400</v>
       </c>
       <c r="G66" s="3">
-        <v>971300</v>
+        <v>1017300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>386600</v>
+        <v>405000</v>
       </c>
       <c r="E72" s="3">
-        <v>309000</v>
+        <v>323600</v>
       </c>
       <c r="F72" s="3">
-        <v>183900</v>
+        <v>192700</v>
       </c>
       <c r="G72" s="3">
-        <v>106600</v>
+        <v>111600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>522600</v>
+        <v>547400</v>
       </c>
       <c r="E76" s="3">
-        <v>442300</v>
+        <v>463300</v>
       </c>
       <c r="F76" s="3">
-        <v>266000</v>
+        <v>278600</v>
       </c>
       <c r="G76" s="3">
-        <v>162500</v>
+        <v>170200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>77600</v>
+        <v>81300</v>
       </c>
       <c r="E81" s="3">
-        <v>125000</v>
+        <v>131000</v>
       </c>
       <c r="F81" s="3">
-        <v>77400</v>
+        <v>81000</v>
       </c>
       <c r="G81" s="3">
-        <v>34200</v>
+        <v>35800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,10 +2708,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F83" s="3">
         <v>1600</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>188700</v>
+        <v>197600</v>
       </c>
       <c r="E89" s="3">
-        <v>193500</v>
+        <v>202700</v>
       </c>
       <c r="F89" s="3">
-        <v>186900</v>
+        <v>195700</v>
       </c>
       <c r="G89" s="3">
-        <v>55200</v>
+        <v>57800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>716900</v>
+        <v>750900</v>
       </c>
       <c r="E94" s="3">
-        <v>93100</v>
+        <v>97600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1391900</v>
+        <v>-1457900</v>
       </c>
       <c r="G94" s="3">
-        <v>-682600</v>
+        <v>-715000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1117600</v>
+        <v>-1170700</v>
       </c>
       <c r="E100" s="3">
         <v>-400</v>
       </c>
       <c r="F100" s="3">
-        <v>1344400</v>
+        <v>1408100</v>
       </c>
       <c r="G100" s="3">
-        <v>623200</v>
+        <v>652800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-211500</v>
+        <v>-221500</v>
       </c>
       <c r="E102" s="3">
-        <v>286300</v>
+        <v>299900</v>
       </c>
       <c r="F102" s="3">
-        <v>139000</v>
+        <v>145600</v>
       </c>
       <c r="G102" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>471400</v>
+        <v>310800</v>
       </c>
       <c r="E8" s="3">
-        <v>651300</v>
+        <v>473400</v>
       </c>
       <c r="F8" s="3">
-        <v>520700</v>
+        <v>654100</v>
       </c>
       <c r="G8" s="3">
-        <v>204900</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>523000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>205700</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>229600</v>
+        <v>175100</v>
       </c>
       <c r="E9" s="3">
-        <v>295600</v>
+        <v>230600</v>
       </c>
       <c r="F9" s="3">
-        <v>214500</v>
+        <v>296900</v>
       </c>
       <c r="G9" s="3">
-        <v>67300</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>215400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>67600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -768,26 +774,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>241800</v>
+        <v>135700</v>
       </c>
       <c r="E10" s="3">
-        <v>355700</v>
+        <v>242800</v>
       </c>
       <c r="F10" s="3">
-        <v>306200</v>
+        <v>357200</v>
       </c>
       <c r="G10" s="3">
-        <v>137500</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>307500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>138100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,26 +825,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,27 +888,30 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>8700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,27 +921,30 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>1700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2000</v>
       </c>
-      <c r="F15" s="3">
-        <v>1600</v>
-      </c>
       <c r="G15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,25 +969,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>361700</v>
+        <v>286000</v>
       </c>
       <c r="E17" s="3">
-        <v>475200</v>
+        <v>363300</v>
       </c>
       <c r="F17" s="3">
-        <v>397700</v>
+        <v>477200</v>
       </c>
       <c r="G17" s="3">
-        <v>161000</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>399400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>161700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,26 +999,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>109700</v>
+        <v>24900</v>
       </c>
       <c r="E18" s="3">
-        <v>176100</v>
+        <v>110200</v>
       </c>
       <c r="F18" s="3">
-        <v>123000</v>
+        <v>176900</v>
       </c>
       <c r="G18" s="3">
-        <v>43800</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>123500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>44000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,8 +1050,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1035,8 +1068,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>111300</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>178100</v>
+        <v>111800</v>
       </c>
       <c r="F21" s="3">
-        <v>124700</v>
+        <v>178900</v>
       </c>
       <c r="G21" s="3">
-        <v>44800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>125200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>45000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,26 +1146,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>109700</v>
+        <v>24900</v>
       </c>
       <c r="E23" s="3">
-        <v>176100</v>
+        <v>110200</v>
       </c>
       <c r="F23" s="3">
-        <v>123000</v>
+        <v>176900</v>
       </c>
       <c r="G23" s="3">
-        <v>43800</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>123500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>44000</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1137,27 +1179,30 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28400</v>
+        <v>7300</v>
       </c>
       <c r="E24" s="3">
-        <v>45200</v>
+        <v>28500</v>
       </c>
       <c r="F24" s="3">
-        <v>42000</v>
+        <v>45300</v>
       </c>
       <c r="G24" s="3">
+        <v>42200</v>
+      </c>
+      <c r="H24" s="3">
         <v>8000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,26 +1245,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>81300</v>
+        <v>17500</v>
       </c>
       <c r="E26" s="3">
-        <v>131000</v>
+        <v>81700</v>
       </c>
       <c r="F26" s="3">
-        <v>81000</v>
+        <v>131500</v>
       </c>
       <c r="G26" s="3">
-        <v>35800</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>81400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>36000</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1227,26 +1278,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>81300</v>
+        <v>17500</v>
       </c>
       <c r="E27" s="3">
-        <v>131000</v>
+        <v>81700</v>
       </c>
       <c r="F27" s="3">
-        <v>81000</v>
+        <v>131500</v>
       </c>
       <c r="G27" s="3">
-        <v>35800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>81400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>36000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,9 +1443,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1395,8 +1464,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1407,26 +1476,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>81300</v>
+        <v>17500</v>
       </c>
       <c r="E33" s="3">
-        <v>131000</v>
+        <v>81700</v>
       </c>
       <c r="F33" s="3">
-        <v>81000</v>
+        <v>131500</v>
       </c>
       <c r="G33" s="3">
-        <v>35800</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>81400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>36000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,26 +1542,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>81300</v>
+        <v>17500</v>
       </c>
       <c r="E35" s="3">
-        <v>131000</v>
+        <v>81700</v>
       </c>
       <c r="F35" s="3">
-        <v>81000</v>
+        <v>131500</v>
       </c>
       <c r="G35" s="3">
-        <v>35800</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>81400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>36000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>259400</v>
+        <v>299600</v>
       </c>
       <c r="E41" s="3">
-        <v>481000</v>
+        <v>260500</v>
       </c>
       <c r="F41" s="3">
-        <v>181100</v>
+        <v>483000</v>
       </c>
       <c r="G41" s="3">
-        <v>35500</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>181900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>35600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,9 +1709,12 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1632,15 +1724,15 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,9 +1775,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1692,15 +1790,15 @@
       <c r="E45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,9 +1808,12 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,26 +1841,29 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1680300</v>
+        <v>1460800</v>
       </c>
       <c r="E47" s="3">
-        <v>2412400</v>
+        <v>1687600</v>
       </c>
       <c r="F47" s="3">
-        <v>2551300</v>
+        <v>2422900</v>
       </c>
       <c r="G47" s="3">
-        <v>1122000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>2562400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1126900</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1770,26 +1874,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
         <v>7200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>2900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1800,26 +1907,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E49" s="3">
         <v>600</v>
       </c>
       <c r="F49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,27 +2006,30 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
-        <v>33100</v>
-      </c>
       <c r="F52" s="3">
-        <v>17100</v>
+        <v>33200</v>
       </c>
       <c r="G52" s="3">
+        <v>17200</v>
+      </c>
+      <c r="H52" s="3">
         <v>8500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1981600</v>
+        <v>1864700</v>
       </c>
       <c r="E54" s="3">
-        <v>2944200</v>
+        <v>1990200</v>
       </c>
       <c r="F54" s="3">
-        <v>2771000</v>
+        <v>2957000</v>
       </c>
       <c r="G54" s="3">
-        <v>1187500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>2783000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1192700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,8 +2138,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2038,56 +2168,62 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>77700</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>133000</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>643800</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>536600</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>21600</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>32300</v>
+        <v>71500</v>
       </c>
       <c r="E59" s="3">
-        <v>111300</v>
+        <v>32400</v>
       </c>
       <c r="F59" s="3">
-        <v>68800</v>
+        <v>111800</v>
       </c>
       <c r="G59" s="3">
-        <v>22500</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>69100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>22600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,9 +2234,12 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2128,26 +2267,29 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1011900</v>
+        <v>863200</v>
       </c>
       <c r="E61" s="3">
-        <v>1690200</v>
+        <v>1016300</v>
       </c>
       <c r="F61" s="3">
-        <v>1855200</v>
+        <v>1697500</v>
       </c>
       <c r="G61" s="3">
-        <v>940700</v>
+        <v>1863300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>944800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2158,27 +2300,30 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>54700</v>
+        <v>11800</v>
       </c>
       <c r="E62" s="3">
+        <v>54900</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1434100</v>
+        <v>1293100</v>
       </c>
       <c r="E66" s="3">
-        <v>2480900</v>
+        <v>1440400</v>
       </c>
       <c r="F66" s="3">
-        <v>2492400</v>
+        <v>2491700</v>
       </c>
       <c r="G66" s="3">
-        <v>1017300</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>2503200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1021700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,26 +2612,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>405000</v>
+        <v>421500</v>
       </c>
       <c r="E72" s="3">
-        <v>323600</v>
+        <v>406700</v>
       </c>
       <c r="F72" s="3">
-        <v>192700</v>
+        <v>325000</v>
       </c>
       <c r="G72" s="3">
-        <v>111600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>193500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>112100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,26 +2744,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>547400</v>
+        <v>571600</v>
       </c>
       <c r="E76" s="3">
-        <v>463300</v>
+        <v>549800</v>
       </c>
       <c r="F76" s="3">
-        <v>278600</v>
+        <v>465300</v>
       </c>
       <c r="G76" s="3">
-        <v>170200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>279800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>170900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,26 +2848,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>81300</v>
+        <v>17500</v>
       </c>
       <c r="E81" s="3">
-        <v>131000</v>
+        <v>81700</v>
       </c>
       <c r="F81" s="3">
-        <v>81000</v>
+        <v>131500</v>
       </c>
       <c r="G81" s="3">
-        <v>35800</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>81400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>36000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,26 +2899,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3">
-        <v>1600</v>
-      </c>
       <c r="G83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>197600</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>202700</v>
+        <v>198500</v>
       </c>
       <c r="F89" s="3">
-        <v>195700</v>
+        <v>203600</v>
       </c>
       <c r="G89" s="3">
-        <v>57800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>196600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>58000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,26 +3145,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,26 +3241,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>750900</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>97600</v>
+        <v>754200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1457900</v>
+        <v>98000</v>
       </c>
       <c r="G94" s="3">
-        <v>-715000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-1464200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-718100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,26 +3421,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-1170700</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
+        <v>-1175700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
-        <v>1408100</v>
-      </c>
       <c r="G100" s="3">
-        <v>652800</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>1414200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>655600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3209,27 +3454,30 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,27 +3487,30 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-221500</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>299900</v>
+        <v>-222500</v>
       </c>
       <c r="F102" s="3">
-        <v>145600</v>
+        <v>301200</v>
       </c>
       <c r="G102" s="3">
+        <v>146200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-4100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>310800</v>
+        <v>317400</v>
       </c>
       <c r="E8" s="3">
-        <v>473400</v>
+        <v>483400</v>
       </c>
       <c r="F8" s="3">
-        <v>654100</v>
+        <v>667900</v>
       </c>
       <c r="G8" s="3">
-        <v>523000</v>
+        <v>534000</v>
       </c>
       <c r="H8" s="3">
-        <v>205700</v>
+        <v>210100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>175100</v>
+        <v>182700</v>
       </c>
       <c r="E9" s="3">
-        <v>230600</v>
+        <v>235400</v>
       </c>
       <c r="F9" s="3">
-        <v>296900</v>
+        <v>303100</v>
       </c>
       <c r="G9" s="3">
-        <v>215400</v>
+        <v>220000</v>
       </c>
       <c r="H9" s="3">
-        <v>67600</v>
+        <v>69100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>135700</v>
+        <v>134700</v>
       </c>
       <c r="E10" s="3">
-        <v>242800</v>
+        <v>248000</v>
       </c>
       <c r="F10" s="3">
-        <v>357200</v>
+        <v>364800</v>
       </c>
       <c r="G10" s="3">
-        <v>307500</v>
+        <v>314000</v>
       </c>
       <c r="H10" s="3">
-        <v>138100</v>
+        <v>141000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -831,8 +831,8 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>1600</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -930,14 +930,14 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>900</v>
       </c>
       <c r="E15" s="3">
         <v>1700</v>
       </c>
       <c r="F15" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G15" s="3">
         <v>1700</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>286000</v>
+        <v>292000</v>
       </c>
       <c r="E17" s="3">
-        <v>363300</v>
+        <v>370900</v>
       </c>
       <c r="F17" s="3">
-        <v>477200</v>
+        <v>487300</v>
       </c>
       <c r="G17" s="3">
-        <v>399400</v>
+        <v>407800</v>
       </c>
       <c r="H17" s="3">
-        <v>161700</v>
+        <v>165200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="E18" s="3">
-        <v>110200</v>
+        <v>112500</v>
       </c>
       <c r="F18" s="3">
-        <v>176900</v>
+        <v>180600</v>
       </c>
       <c r="G18" s="3">
-        <v>123500</v>
+        <v>126200</v>
       </c>
       <c r="H18" s="3">
-        <v>44000</v>
+        <v>44900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1089,20 +1089,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>26300</v>
       </c>
       <c r="E21" s="3">
-        <v>111800</v>
+        <v>114200</v>
       </c>
       <c r="F21" s="3">
-        <v>178900</v>
+        <v>182700</v>
       </c>
       <c r="G21" s="3">
-        <v>125200</v>
+        <v>127800</v>
       </c>
       <c r="H21" s="3">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="E23" s="3">
-        <v>110200</v>
+        <v>112500</v>
       </c>
       <c r="F23" s="3">
-        <v>176900</v>
+        <v>180600</v>
       </c>
       <c r="G23" s="3">
-        <v>123500</v>
+        <v>126200</v>
       </c>
       <c r="H23" s="3">
-        <v>44000</v>
+        <v>44900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="E24" s="3">
-        <v>28500</v>
+        <v>29100</v>
       </c>
       <c r="F24" s="3">
-        <v>45300</v>
+        <v>46300</v>
       </c>
       <c r="G24" s="3">
-        <v>42200</v>
+        <v>43100</v>
       </c>
       <c r="H24" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="E26" s="3">
-        <v>81700</v>
+        <v>83400</v>
       </c>
       <c r="F26" s="3">
-        <v>131500</v>
+        <v>134300</v>
       </c>
       <c r="G26" s="3">
-        <v>81400</v>
+        <v>83100</v>
       </c>
       <c r="H26" s="3">
-        <v>36000</v>
+        <v>36700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="E27" s="3">
-        <v>81700</v>
+        <v>83400</v>
       </c>
       <c r="F27" s="3">
-        <v>131500</v>
+        <v>134300</v>
       </c>
       <c r="G27" s="3">
-        <v>81400</v>
+        <v>83100</v>
       </c>
       <c r="H27" s="3">
-        <v>36000</v>
+        <v>36700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="E33" s="3">
-        <v>81700</v>
+        <v>83400</v>
       </c>
       <c r="F33" s="3">
-        <v>131500</v>
+        <v>134300</v>
       </c>
       <c r="G33" s="3">
-        <v>81400</v>
+        <v>83100</v>
       </c>
       <c r="H33" s="3">
-        <v>36000</v>
+        <v>36700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="E35" s="3">
-        <v>81700</v>
+        <v>83400</v>
       </c>
       <c r="F35" s="3">
-        <v>131500</v>
+        <v>134300</v>
       </c>
       <c r="G35" s="3">
-        <v>81400</v>
+        <v>83100</v>
       </c>
       <c r="H35" s="3">
-        <v>36000</v>
+        <v>36700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>299600</v>
+        <v>305900</v>
       </c>
       <c r="E41" s="3">
-        <v>260500</v>
+        <v>266100</v>
       </c>
       <c r="F41" s="3">
-        <v>483000</v>
+        <v>493300</v>
       </c>
       <c r="G41" s="3">
-        <v>181900</v>
+        <v>185700</v>
       </c>
       <c r="H41" s="3">
-        <v>35600</v>
+        <v>36400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1731,7 +1731,7 @@
         <v>1200</v>
       </c>
       <c r="H43" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1460800</v>
+        <v>1491700</v>
       </c>
       <c r="E47" s="3">
-        <v>1687600</v>
+        <v>1723300</v>
       </c>
       <c r="F47" s="3">
-        <v>2422900</v>
+        <v>2474100</v>
       </c>
       <c r="G47" s="3">
-        <v>2562400</v>
+        <v>2616500</v>
       </c>
       <c r="H47" s="3">
-        <v>1126900</v>
+        <v>1150700</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E48" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="F48" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G48" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H48" s="3">
         <v>2900</v>
@@ -1923,7 +1923,7 @@
         <v>600</v>
       </c>
       <c r="F49" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3200</v>
+        <v>11800</v>
       </c>
       <c r="E52" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F52" s="3">
-        <v>33200</v>
+        <v>34000</v>
       </c>
       <c r="G52" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="H52" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1864700</v>
+        <v>1908500</v>
       </c>
       <c r="E54" s="3">
-        <v>1990200</v>
+        <v>2032200</v>
       </c>
       <c r="F54" s="3">
-        <v>2957000</v>
+        <v>3019500</v>
       </c>
       <c r="G54" s="3">
-        <v>2783000</v>
+        <v>2841900</v>
       </c>
       <c r="H54" s="3">
-        <v>1192700</v>
+        <v>1217900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>77700</v>
+        <v>79300</v>
       </c>
       <c r="E58" s="3">
-        <v>133000</v>
+        <v>135900</v>
       </c>
       <c r="F58" s="3">
-        <v>643800</v>
+        <v>657400</v>
       </c>
       <c r="G58" s="3">
-        <v>536600</v>
+        <v>547900</v>
       </c>
       <c r="H58" s="3">
-        <v>21600</v>
+        <v>22100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>71500</v>
+        <v>31800</v>
       </c>
       <c r="E59" s="3">
-        <v>32400</v>
+        <v>33100</v>
       </c>
       <c r="F59" s="3">
-        <v>111800</v>
+        <v>114100</v>
       </c>
       <c r="G59" s="3">
-        <v>69100</v>
+        <v>70500</v>
       </c>
       <c r="H59" s="3">
-        <v>22600</v>
+        <v>23100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>863200</v>
+        <v>881400</v>
       </c>
       <c r="E61" s="3">
-        <v>1016300</v>
+        <v>1037800</v>
       </c>
       <c r="F61" s="3">
-        <v>1697500</v>
+        <v>1733400</v>
       </c>
       <c r="G61" s="3">
-        <v>1863300</v>
+        <v>1902700</v>
       </c>
       <c r="H61" s="3">
-        <v>944800</v>
+        <v>964700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11800</v>
+        <v>61900</v>
       </c>
       <c r="E62" s="3">
-        <v>54900</v>
+        <v>56100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1293100</v>
+        <v>1324900</v>
       </c>
       <c r="E66" s="3">
-        <v>1440400</v>
+        <v>1470800</v>
       </c>
       <c r="F66" s="3">
-        <v>2491700</v>
+        <v>2544400</v>
       </c>
       <c r="G66" s="3">
-        <v>2503200</v>
+        <v>2556200</v>
       </c>
       <c r="H66" s="3">
-        <v>1021700</v>
+        <v>1043300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>421500</v>
+        <v>430500</v>
       </c>
       <c r="E72" s="3">
-        <v>406700</v>
+        <v>415300</v>
       </c>
       <c r="F72" s="3">
-        <v>325000</v>
+        <v>331900</v>
       </c>
       <c r="G72" s="3">
-        <v>193500</v>
+        <v>197600</v>
       </c>
       <c r="H72" s="3">
-        <v>112100</v>
+        <v>114500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>571600</v>
+        <v>583700</v>
       </c>
       <c r="E76" s="3">
-        <v>549800</v>
+        <v>561400</v>
       </c>
       <c r="F76" s="3">
-        <v>465300</v>
+        <v>475100</v>
       </c>
       <c r="G76" s="3">
-        <v>279800</v>
+        <v>285700</v>
       </c>
       <c r="H76" s="3">
-        <v>170900</v>
+        <v>174500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="E81" s="3">
-        <v>81700</v>
+        <v>83400</v>
       </c>
       <c r="F81" s="3">
-        <v>131500</v>
+        <v>134300</v>
       </c>
       <c r="G81" s="3">
-        <v>81400</v>
+        <v>83100</v>
       </c>
       <c r="H81" s="3">
-        <v>36000</v>
+        <v>36700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2905,14 +2905,14 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>900</v>
       </c>
       <c r="E83" s="3">
         <v>1700</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
@@ -3103,20 +3103,20 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>174700</v>
       </c>
       <c r="E89" s="3">
-        <v>198500</v>
+        <v>202700</v>
       </c>
       <c r="F89" s="3">
-        <v>203600</v>
+        <v>207900</v>
       </c>
       <c r="G89" s="3">
-        <v>196600</v>
+        <v>200700</v>
       </c>
       <c r="H89" s="3">
-        <v>58000</v>
+        <v>59300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3151,8 +3151,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
         <v>-700</v>
@@ -3161,10 +3161,10 @@
         <v>-2300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3250,20 +3250,20 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>81800</v>
       </c>
       <c r="E94" s="3">
-        <v>754200</v>
+        <v>770100</v>
       </c>
       <c r="F94" s="3">
-        <v>98000</v>
+        <v>100100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1464200</v>
+        <v>-1495200</v>
       </c>
       <c r="H94" s="3">
-        <v>-718100</v>
+        <v>-733300</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3430,20 +3430,20 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-213300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1175700</v>
+        <v>-1200600</v>
       </c>
       <c r="F100" s="3">
         <v>-400</v>
       </c>
       <c r="G100" s="3">
-        <v>1414200</v>
+        <v>1444100</v>
       </c>
       <c r="H100" s="3">
-        <v>655600</v>
+        <v>669500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3463,8 +3463,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-3300</v>
       </c>
       <c r="E101" s="3">
         <v>600</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H101" s="3">
         <v>400</v>
@@ -3496,20 +3496,20 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>39900</v>
       </c>
       <c r="E102" s="3">
-        <v>-222500</v>
+        <v>-227200</v>
       </c>
       <c r="F102" s="3">
-        <v>301200</v>
+        <v>307500</v>
       </c>
       <c r="G102" s="3">
-        <v>146200</v>
+        <v>149300</v>
       </c>
       <c r="H102" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>317400</v>
+        <v>313300</v>
       </c>
       <c r="E8" s="3">
-        <v>483400</v>
+        <v>477100</v>
       </c>
       <c r="F8" s="3">
-        <v>667900</v>
+        <v>659200</v>
       </c>
       <c r="G8" s="3">
-        <v>534000</v>
+        <v>527100</v>
       </c>
       <c r="H8" s="3">
-        <v>210100</v>
+        <v>207400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>182700</v>
+        <v>180300</v>
       </c>
       <c r="E9" s="3">
-        <v>235400</v>
+        <v>232400</v>
       </c>
       <c r="F9" s="3">
-        <v>303100</v>
+        <v>299200</v>
       </c>
       <c r="G9" s="3">
-        <v>220000</v>
+        <v>217100</v>
       </c>
       <c r="H9" s="3">
-        <v>69100</v>
+        <v>68200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>134700</v>
+        <v>132900</v>
       </c>
       <c r="E10" s="3">
-        <v>248000</v>
+        <v>244700</v>
       </c>
       <c r="F10" s="3">
-        <v>364800</v>
+        <v>360000</v>
       </c>
       <c r="G10" s="3">
-        <v>314000</v>
+        <v>310000</v>
       </c>
       <c r="H10" s="3">
-        <v>141000</v>
+        <v>139200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -832,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -937,7 +937,7 @@
         <v>1700</v>
       </c>
       <c r="F15" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="3">
         <v>1700</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>292000</v>
+        <v>288200</v>
       </c>
       <c r="E17" s="3">
-        <v>370900</v>
+        <v>366100</v>
       </c>
       <c r="F17" s="3">
-        <v>487300</v>
+        <v>481000</v>
       </c>
       <c r="G17" s="3">
-        <v>407800</v>
+        <v>402500</v>
       </c>
       <c r="H17" s="3">
-        <v>165200</v>
+        <v>163000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="E18" s="3">
-        <v>112500</v>
+        <v>111000</v>
       </c>
       <c r="F18" s="3">
-        <v>180600</v>
+        <v>178300</v>
       </c>
       <c r="G18" s="3">
-        <v>126200</v>
+        <v>124500</v>
       </c>
       <c r="H18" s="3">
-        <v>44900</v>
+        <v>44400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="E21" s="3">
-        <v>114200</v>
+        <v>112700</v>
       </c>
       <c r="F21" s="3">
-        <v>182700</v>
+        <v>180300</v>
       </c>
       <c r="G21" s="3">
-        <v>127800</v>
+        <v>126200</v>
       </c>
       <c r="H21" s="3">
-        <v>46000</v>
+        <v>45400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="E23" s="3">
-        <v>112500</v>
+        <v>111000</v>
       </c>
       <c r="F23" s="3">
-        <v>180600</v>
+        <v>178300</v>
       </c>
       <c r="G23" s="3">
-        <v>126200</v>
+        <v>124500</v>
       </c>
       <c r="H23" s="3">
-        <v>44900</v>
+        <v>44400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E24" s="3">
-        <v>29100</v>
+        <v>28700</v>
       </c>
       <c r="F24" s="3">
-        <v>46300</v>
+        <v>45700</v>
       </c>
       <c r="G24" s="3">
-        <v>43100</v>
+        <v>42500</v>
       </c>
       <c r="H24" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="E26" s="3">
-        <v>83400</v>
+        <v>82300</v>
       </c>
       <c r="F26" s="3">
-        <v>134300</v>
+        <v>132600</v>
       </c>
       <c r="G26" s="3">
-        <v>83100</v>
+        <v>82000</v>
       </c>
       <c r="H26" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="E27" s="3">
-        <v>83400</v>
+        <v>82300</v>
       </c>
       <c r="F27" s="3">
-        <v>134300</v>
+        <v>132600</v>
       </c>
       <c r="G27" s="3">
-        <v>83100</v>
+        <v>82000</v>
       </c>
       <c r="H27" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="E33" s="3">
-        <v>83400</v>
+        <v>82300</v>
       </c>
       <c r="F33" s="3">
-        <v>134300</v>
+        <v>132600</v>
       </c>
       <c r="G33" s="3">
-        <v>83100</v>
+        <v>82000</v>
       </c>
       <c r="H33" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="E35" s="3">
-        <v>83400</v>
+        <v>82300</v>
       </c>
       <c r="F35" s="3">
-        <v>134300</v>
+        <v>132600</v>
       </c>
       <c r="G35" s="3">
-        <v>83100</v>
+        <v>82000</v>
       </c>
       <c r="H35" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>305900</v>
+        <v>301900</v>
       </c>
       <c r="E41" s="3">
-        <v>266100</v>
+        <v>262600</v>
       </c>
       <c r="F41" s="3">
-        <v>493300</v>
+        <v>486800</v>
       </c>
       <c r="G41" s="3">
-        <v>185700</v>
+        <v>183300</v>
       </c>
       <c r="H41" s="3">
-        <v>36400</v>
+        <v>35900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1731,7 +1731,7 @@
         <v>1200</v>
       </c>
       <c r="H43" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1491700</v>
+        <v>1472300</v>
       </c>
       <c r="E47" s="3">
-        <v>1723300</v>
+        <v>1700800</v>
       </c>
       <c r="F47" s="3">
-        <v>2474100</v>
+        <v>2441900</v>
       </c>
       <c r="G47" s="3">
-        <v>2616500</v>
+        <v>2582500</v>
       </c>
       <c r="H47" s="3">
-        <v>1150700</v>
+        <v>1135700</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,10 +1884,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E48" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="F48" s="3">
         <v>3000</v>
@@ -1923,7 +1923,7 @@
         <v>600</v>
       </c>
       <c r="F49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="E52" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F52" s="3">
-        <v>34000</v>
+        <v>33500</v>
       </c>
       <c r="G52" s="3">
-        <v>17600</v>
+        <v>17300</v>
       </c>
       <c r="H52" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1908500</v>
+        <v>1883700</v>
       </c>
       <c r="E54" s="3">
-        <v>2032200</v>
+        <v>2005800</v>
       </c>
       <c r="F54" s="3">
-        <v>3019500</v>
+        <v>2980200</v>
       </c>
       <c r="G54" s="3">
-        <v>2841900</v>
+        <v>2804900</v>
       </c>
       <c r="H54" s="3">
-        <v>1217900</v>
+        <v>1202000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>79300</v>
+        <v>78300</v>
       </c>
       <c r="E58" s="3">
-        <v>135900</v>
+        <v>134100</v>
       </c>
       <c r="F58" s="3">
-        <v>657400</v>
+        <v>648900</v>
       </c>
       <c r="G58" s="3">
-        <v>547900</v>
+        <v>540800</v>
       </c>
       <c r="H58" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31800</v>
+        <v>31400</v>
       </c>
       <c r="E59" s="3">
-        <v>33100</v>
+        <v>32700</v>
       </c>
       <c r="F59" s="3">
-        <v>114100</v>
+        <v>112700</v>
       </c>
       <c r="G59" s="3">
-        <v>70500</v>
+        <v>69600</v>
       </c>
       <c r="H59" s="3">
-        <v>23100</v>
+        <v>22800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>881400</v>
+        <v>869900</v>
       </c>
       <c r="E61" s="3">
-        <v>1037800</v>
+        <v>1024300</v>
       </c>
       <c r="F61" s="3">
-        <v>1733400</v>
+        <v>1710900</v>
       </c>
       <c r="G61" s="3">
-        <v>1902700</v>
+        <v>1877900</v>
       </c>
       <c r="H61" s="3">
-        <v>964700</v>
+        <v>952200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61900</v>
+        <v>61100</v>
       </c>
       <c r="E62" s="3">
-        <v>56100</v>
+        <v>55300</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1324900</v>
+        <v>1307600</v>
       </c>
       <c r="E66" s="3">
-        <v>1470800</v>
+        <v>1451700</v>
       </c>
       <c r="F66" s="3">
-        <v>2544400</v>
+        <v>2511300</v>
       </c>
       <c r="G66" s="3">
-        <v>2556200</v>
+        <v>2522900</v>
       </c>
       <c r="H66" s="3">
-        <v>1043300</v>
+        <v>1029800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>430500</v>
+        <v>424900</v>
       </c>
       <c r="E72" s="3">
-        <v>415300</v>
+        <v>409900</v>
       </c>
       <c r="F72" s="3">
-        <v>331900</v>
+        <v>327600</v>
       </c>
       <c r="G72" s="3">
-        <v>197600</v>
+        <v>195000</v>
       </c>
       <c r="H72" s="3">
-        <v>114500</v>
+        <v>113000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>583700</v>
+        <v>576100</v>
       </c>
       <c r="E76" s="3">
-        <v>561400</v>
+        <v>554100</v>
       </c>
       <c r="F76" s="3">
-        <v>475100</v>
+        <v>469000</v>
       </c>
       <c r="G76" s="3">
-        <v>285700</v>
+        <v>282000</v>
       </c>
       <c r="H76" s="3">
-        <v>174500</v>
+        <v>172300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="E81" s="3">
-        <v>83400</v>
+        <v>82300</v>
       </c>
       <c r="F81" s="3">
-        <v>134300</v>
+        <v>132600</v>
       </c>
       <c r="G81" s="3">
-        <v>83100</v>
+        <v>82000</v>
       </c>
       <c r="H81" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2912,7 +2912,7 @@
         <v>1700</v>
       </c>
       <c r="F83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>174700</v>
+        <v>172400</v>
       </c>
       <c r="E89" s="3">
-        <v>202700</v>
+        <v>200000</v>
       </c>
       <c r="F89" s="3">
-        <v>207900</v>
+        <v>205200</v>
       </c>
       <c r="G89" s="3">
-        <v>200700</v>
+        <v>198100</v>
       </c>
       <c r="H89" s="3">
-        <v>59300</v>
+        <v>58500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3161,10 +3161,10 @@
         <v>-2300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>81800</v>
+        <v>80700</v>
       </c>
       <c r="E94" s="3">
-        <v>770100</v>
+        <v>760100</v>
       </c>
       <c r="F94" s="3">
-        <v>100100</v>
+        <v>98800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1495200</v>
+        <v>-1475700</v>
       </c>
       <c r="H94" s="3">
-        <v>-733300</v>
+        <v>-723800</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-213300</v>
+        <v>-210500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1200600</v>
+        <v>-1185000</v>
       </c>
       <c r="F100" s="3">
         <v>-400</v>
       </c>
       <c r="G100" s="3">
-        <v>1444100</v>
+        <v>1425400</v>
       </c>
       <c r="H100" s="3">
-        <v>669500</v>
+        <v>660700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="E101" s="3">
         <v>600</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>39900</v>
+        <v>39400</v>
       </c>
       <c r="E102" s="3">
-        <v>-227200</v>
+        <v>-224200</v>
       </c>
       <c r="F102" s="3">
-        <v>307500</v>
+        <v>303500</v>
       </c>
       <c r="G102" s="3">
-        <v>149300</v>
+        <v>147400</v>
       </c>
       <c r="H102" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>313300</v>
+        <v>318500</v>
       </c>
       <c r="E8" s="3">
-        <v>477100</v>
+        <v>485100</v>
       </c>
       <c r="F8" s="3">
-        <v>659200</v>
+        <v>670300</v>
       </c>
       <c r="G8" s="3">
-        <v>527100</v>
+        <v>535900</v>
       </c>
       <c r="H8" s="3">
-        <v>207400</v>
+        <v>210800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>180300</v>
+        <v>183400</v>
       </c>
       <c r="E9" s="3">
-        <v>232400</v>
+        <v>236300</v>
       </c>
       <c r="F9" s="3">
-        <v>299200</v>
+        <v>304200</v>
       </c>
       <c r="G9" s="3">
-        <v>217100</v>
+        <v>220700</v>
       </c>
       <c r="H9" s="3">
-        <v>68200</v>
+        <v>69300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>132900</v>
+        <v>135100</v>
       </c>
       <c r="E10" s="3">
-        <v>244700</v>
+        <v>248800</v>
       </c>
       <c r="F10" s="3">
-        <v>360000</v>
+        <v>366100</v>
       </c>
       <c r="G10" s="3">
-        <v>310000</v>
+        <v>315200</v>
       </c>
       <c r="H10" s="3">
-        <v>139200</v>
+        <v>141500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -832,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
@@ -841,7 +841,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H12" s="3">
         <v>1300</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -937,7 +937,7 @@
         <v>1700</v>
       </c>
       <c r="F15" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G15" s="3">
         <v>1700</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>288200</v>
+        <v>293000</v>
       </c>
       <c r="E17" s="3">
-        <v>366100</v>
+        <v>372200</v>
       </c>
       <c r="F17" s="3">
-        <v>481000</v>
+        <v>489000</v>
       </c>
       <c r="G17" s="3">
-        <v>402500</v>
+        <v>409300</v>
       </c>
       <c r="H17" s="3">
-        <v>163000</v>
+        <v>165700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25100</v>
+        <v>25500</v>
       </c>
       <c r="E18" s="3">
-        <v>111000</v>
+        <v>112900</v>
       </c>
       <c r="F18" s="3">
-        <v>178300</v>
+        <v>181300</v>
       </c>
       <c r="G18" s="3">
-        <v>124500</v>
+        <v>126600</v>
       </c>
       <c r="H18" s="3">
-        <v>44400</v>
+        <v>45100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="E21" s="3">
-        <v>112700</v>
+        <v>114600</v>
       </c>
       <c r="F21" s="3">
-        <v>180300</v>
+        <v>183300</v>
       </c>
       <c r="G21" s="3">
-        <v>126200</v>
+        <v>128300</v>
       </c>
       <c r="H21" s="3">
-        <v>45400</v>
+        <v>46100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25100</v>
+        <v>25500</v>
       </c>
       <c r="E23" s="3">
-        <v>111000</v>
+        <v>112900</v>
       </c>
       <c r="F23" s="3">
-        <v>178300</v>
+        <v>181300</v>
       </c>
       <c r="G23" s="3">
-        <v>124500</v>
+        <v>126600</v>
       </c>
       <c r="H23" s="3">
-        <v>44400</v>
+        <v>45100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="E24" s="3">
-        <v>28700</v>
+        <v>29200</v>
       </c>
       <c r="F24" s="3">
-        <v>45700</v>
+        <v>46500</v>
       </c>
       <c r="G24" s="3">
-        <v>42500</v>
+        <v>43200</v>
       </c>
       <c r="H24" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="E26" s="3">
-        <v>82300</v>
+        <v>83700</v>
       </c>
       <c r="F26" s="3">
-        <v>132600</v>
+        <v>134800</v>
       </c>
       <c r="G26" s="3">
-        <v>82000</v>
+        <v>83400</v>
       </c>
       <c r="H26" s="3">
-        <v>36300</v>
+        <v>36900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="E27" s="3">
-        <v>82300</v>
+        <v>83700</v>
       </c>
       <c r="F27" s="3">
-        <v>132600</v>
+        <v>134800</v>
       </c>
       <c r="G27" s="3">
-        <v>82000</v>
+        <v>83400</v>
       </c>
       <c r="H27" s="3">
-        <v>36300</v>
+        <v>36900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="E33" s="3">
-        <v>82300</v>
+        <v>83700</v>
       </c>
       <c r="F33" s="3">
-        <v>132600</v>
+        <v>134800</v>
       </c>
       <c r="G33" s="3">
-        <v>82000</v>
+        <v>83400</v>
       </c>
       <c r="H33" s="3">
-        <v>36300</v>
+        <v>36900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="E35" s="3">
-        <v>82300</v>
+        <v>83700</v>
       </c>
       <c r="F35" s="3">
-        <v>132600</v>
+        <v>134800</v>
       </c>
       <c r="G35" s="3">
-        <v>82000</v>
+        <v>83400</v>
       </c>
       <c r="H35" s="3">
-        <v>36300</v>
+        <v>36900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>301900</v>
+        <v>307000</v>
       </c>
       <c r="E41" s="3">
-        <v>262600</v>
+        <v>267000</v>
       </c>
       <c r="F41" s="3">
-        <v>486800</v>
+        <v>495000</v>
       </c>
       <c r="G41" s="3">
-        <v>183300</v>
+        <v>186400</v>
       </c>
       <c r="H41" s="3">
-        <v>35900</v>
+        <v>36500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1731,7 +1731,7 @@
         <v>1200</v>
       </c>
       <c r="H43" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1472300</v>
+        <v>1497000</v>
       </c>
       <c r="E47" s="3">
-        <v>1700800</v>
+        <v>1729300</v>
       </c>
       <c r="F47" s="3">
-        <v>2441900</v>
+        <v>2482800</v>
       </c>
       <c r="G47" s="3">
-        <v>2582500</v>
+        <v>2625800</v>
       </c>
       <c r="H47" s="3">
-        <v>1135700</v>
+        <v>1154800</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,10 +1884,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E48" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="F48" s="3">
         <v>3000</v>
@@ -1923,7 +1923,7 @@
         <v>600</v>
       </c>
       <c r="F49" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="E52" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F52" s="3">
-        <v>33500</v>
+        <v>34100</v>
       </c>
       <c r="G52" s="3">
-        <v>17300</v>
+        <v>17600</v>
       </c>
       <c r="H52" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1883700</v>
+        <v>1915300</v>
       </c>
       <c r="E54" s="3">
-        <v>2005800</v>
+        <v>2039400</v>
       </c>
       <c r="F54" s="3">
-        <v>2980200</v>
+        <v>3030200</v>
       </c>
       <c r="G54" s="3">
-        <v>2804900</v>
+        <v>2851900</v>
       </c>
       <c r="H54" s="3">
-        <v>1202000</v>
+        <v>1222200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>78300</v>
+        <v>79600</v>
       </c>
       <c r="E58" s="3">
-        <v>134100</v>
+        <v>136300</v>
       </c>
       <c r="F58" s="3">
-        <v>648900</v>
+        <v>659700</v>
       </c>
       <c r="G58" s="3">
-        <v>540800</v>
+        <v>549900</v>
       </c>
       <c r="H58" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31400</v>
+        <v>31900</v>
       </c>
       <c r="E59" s="3">
-        <v>32700</v>
+        <v>33200</v>
       </c>
       <c r="F59" s="3">
-        <v>112700</v>
+        <v>114500</v>
       </c>
       <c r="G59" s="3">
-        <v>69600</v>
+        <v>70800</v>
       </c>
       <c r="H59" s="3">
-        <v>22800</v>
+        <v>23100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>869900</v>
+        <v>884500</v>
       </c>
       <c r="E61" s="3">
-        <v>1024300</v>
+        <v>1041500</v>
       </c>
       <c r="F61" s="3">
-        <v>1710900</v>
+        <v>1739500</v>
       </c>
       <c r="G61" s="3">
-        <v>1877900</v>
+        <v>1909400</v>
       </c>
       <c r="H61" s="3">
-        <v>952200</v>
+        <v>968100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61100</v>
+        <v>62100</v>
       </c>
       <c r="E62" s="3">
-        <v>55300</v>
+        <v>56200</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1307600</v>
+        <v>1329500</v>
       </c>
       <c r="E66" s="3">
-        <v>1451700</v>
+        <v>1476000</v>
       </c>
       <c r="F66" s="3">
-        <v>2511300</v>
+        <v>2553400</v>
       </c>
       <c r="G66" s="3">
-        <v>2522900</v>
+        <v>2565200</v>
       </c>
       <c r="H66" s="3">
-        <v>1029800</v>
+        <v>1047000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>424900</v>
+        <v>432000</v>
       </c>
       <c r="E72" s="3">
-        <v>409900</v>
+        <v>416800</v>
       </c>
       <c r="F72" s="3">
-        <v>327600</v>
+        <v>333100</v>
       </c>
       <c r="G72" s="3">
-        <v>195000</v>
+        <v>198300</v>
       </c>
       <c r="H72" s="3">
-        <v>113000</v>
+        <v>114900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>576100</v>
+        <v>585700</v>
       </c>
       <c r="E76" s="3">
-        <v>554100</v>
+        <v>563400</v>
       </c>
       <c r="F76" s="3">
-        <v>469000</v>
+        <v>476800</v>
       </c>
       <c r="G76" s="3">
-        <v>282000</v>
+        <v>286700</v>
       </c>
       <c r="H76" s="3">
-        <v>172300</v>
+        <v>175100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="E81" s="3">
-        <v>82300</v>
+        <v>83700</v>
       </c>
       <c r="F81" s="3">
-        <v>132600</v>
+        <v>134800</v>
       </c>
       <c r="G81" s="3">
-        <v>82000</v>
+        <v>83400</v>
       </c>
       <c r="H81" s="3">
-        <v>36300</v>
+        <v>36900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2912,7 +2912,7 @@
         <v>1700</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>172400</v>
+        <v>175300</v>
       </c>
       <c r="E89" s="3">
-        <v>200000</v>
+        <v>203400</v>
       </c>
       <c r="F89" s="3">
-        <v>205200</v>
+        <v>208600</v>
       </c>
       <c r="G89" s="3">
-        <v>198100</v>
+        <v>201400</v>
       </c>
       <c r="H89" s="3">
-        <v>58500</v>
+        <v>59500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3161,10 +3161,10 @@
         <v>-2300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>80700</v>
+        <v>82000</v>
       </c>
       <c r="E94" s="3">
-        <v>760100</v>
+        <v>772900</v>
       </c>
       <c r="F94" s="3">
-        <v>98800</v>
+        <v>100400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1475700</v>
+        <v>-1500500</v>
       </c>
       <c r="H94" s="3">
-        <v>-723800</v>
+        <v>-735900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-210500</v>
+        <v>-214000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1185000</v>
+        <v>-1204800</v>
       </c>
       <c r="F100" s="3">
         <v>-400</v>
       </c>
       <c r="G100" s="3">
-        <v>1425400</v>
+        <v>1449200</v>
       </c>
       <c r="H100" s="3">
-        <v>660700</v>
+        <v>671800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="E101" s="3">
         <v>600</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>39400</v>
+        <v>40000</v>
       </c>
       <c r="E102" s="3">
-        <v>-224200</v>
+        <v>-228000</v>
       </c>
       <c r="F102" s="3">
-        <v>303500</v>
+        <v>308600</v>
       </c>
       <c r="G102" s="3">
-        <v>147400</v>
+        <v>149900</v>
       </c>
       <c r="H102" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>318500</v>
+        <v>320900</v>
       </c>
       <c r="E8" s="3">
-        <v>485100</v>
+        <v>488800</v>
       </c>
       <c r="F8" s="3">
-        <v>670300</v>
+        <v>675400</v>
       </c>
       <c r="G8" s="3">
-        <v>535900</v>
+        <v>540000</v>
       </c>
       <c r="H8" s="3">
-        <v>210800</v>
+        <v>212500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>183400</v>
+        <v>184800</v>
       </c>
       <c r="E9" s="3">
-        <v>236300</v>
+        <v>238100</v>
       </c>
       <c r="F9" s="3">
-        <v>304200</v>
+        <v>306500</v>
       </c>
       <c r="G9" s="3">
-        <v>220700</v>
+        <v>222400</v>
       </c>
       <c r="H9" s="3">
-        <v>69300</v>
+        <v>69800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>135100</v>
+        <v>136200</v>
       </c>
       <c r="E10" s="3">
-        <v>248800</v>
+        <v>250700</v>
       </c>
       <c r="F10" s="3">
-        <v>366100</v>
+        <v>368900</v>
       </c>
       <c r="G10" s="3">
-        <v>315200</v>
+        <v>317600</v>
       </c>
       <c r="H10" s="3">
-        <v>141500</v>
+        <v>142600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
         <v>1700</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>293000</v>
+        <v>295300</v>
       </c>
       <c r="E17" s="3">
-        <v>372200</v>
+        <v>375100</v>
       </c>
       <c r="F17" s="3">
-        <v>489000</v>
+        <v>492800</v>
       </c>
       <c r="G17" s="3">
-        <v>409300</v>
+        <v>412400</v>
       </c>
       <c r="H17" s="3">
-        <v>165700</v>
+        <v>167000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="E18" s="3">
-        <v>112900</v>
+        <v>113700</v>
       </c>
       <c r="F18" s="3">
-        <v>181300</v>
+        <v>182600</v>
       </c>
       <c r="G18" s="3">
-        <v>126600</v>
+        <v>127600</v>
       </c>
       <c r="H18" s="3">
-        <v>45100</v>
+        <v>45400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="E21" s="3">
-        <v>114600</v>
+        <v>115500</v>
       </c>
       <c r="F21" s="3">
-        <v>183300</v>
+        <v>184700</v>
       </c>
       <c r="G21" s="3">
-        <v>128300</v>
+        <v>129300</v>
       </c>
       <c r="H21" s="3">
-        <v>46100</v>
+        <v>46500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="E23" s="3">
-        <v>112900</v>
+        <v>113700</v>
       </c>
       <c r="F23" s="3">
-        <v>181300</v>
+        <v>182600</v>
       </c>
       <c r="G23" s="3">
-        <v>126600</v>
+        <v>127600</v>
       </c>
       <c r="H23" s="3">
-        <v>45100</v>
+        <v>45400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1192,16 +1192,16 @@
         <v>7500</v>
       </c>
       <c r="E24" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="F24" s="3">
-        <v>46500</v>
+        <v>46800</v>
       </c>
       <c r="G24" s="3">
-        <v>43200</v>
+        <v>43500</v>
       </c>
       <c r="H24" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="E26" s="3">
-        <v>83700</v>
+        <v>84300</v>
       </c>
       <c r="F26" s="3">
-        <v>134800</v>
+        <v>135800</v>
       </c>
       <c r="G26" s="3">
-        <v>83400</v>
+        <v>84000</v>
       </c>
       <c r="H26" s="3">
-        <v>36900</v>
+        <v>37100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="E27" s="3">
-        <v>83700</v>
+        <v>84300</v>
       </c>
       <c r="F27" s="3">
-        <v>134800</v>
+        <v>135800</v>
       </c>
       <c r="G27" s="3">
-        <v>83400</v>
+        <v>84000</v>
       </c>
       <c r="H27" s="3">
-        <v>36900</v>
+        <v>37100</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="E33" s="3">
-        <v>83700</v>
+        <v>84300</v>
       </c>
       <c r="F33" s="3">
-        <v>134800</v>
+        <v>135800</v>
       </c>
       <c r="G33" s="3">
-        <v>83400</v>
+        <v>84000</v>
       </c>
       <c r="H33" s="3">
-        <v>36900</v>
+        <v>37100</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="E35" s="3">
-        <v>83700</v>
+        <v>84300</v>
       </c>
       <c r="F35" s="3">
-        <v>134800</v>
+        <v>135800</v>
       </c>
       <c r="G35" s="3">
-        <v>83400</v>
+        <v>84000</v>
       </c>
       <c r="H35" s="3">
-        <v>36900</v>
+        <v>37100</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>307000</v>
+        <v>309400</v>
       </c>
       <c r="E41" s="3">
-        <v>267000</v>
+        <v>269000</v>
       </c>
       <c r="F41" s="3">
-        <v>495000</v>
+        <v>498800</v>
       </c>
       <c r="G41" s="3">
-        <v>186400</v>
+        <v>187800</v>
       </c>
       <c r="H41" s="3">
-        <v>36500</v>
+        <v>36800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1794,7 +1794,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H45" s="3">
         <v>800</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1497000</v>
+        <v>1508400</v>
       </c>
       <c r="E47" s="3">
-        <v>1729300</v>
+        <v>1742600</v>
       </c>
       <c r="F47" s="3">
-        <v>2482800</v>
+        <v>2501900</v>
       </c>
       <c r="G47" s="3">
-        <v>2625800</v>
+        <v>2645900</v>
       </c>
       <c r="H47" s="3">
-        <v>1154800</v>
+        <v>1163600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1887,7 +1887,7 @@
         <v>3800</v>
       </c>
       <c r="E48" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="F48" s="3">
         <v>3000</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="E52" s="3">
         <v>2600</v>
       </c>
       <c r="F52" s="3">
-        <v>34100</v>
+        <v>34300</v>
       </c>
       <c r="G52" s="3">
-        <v>17600</v>
+        <v>17800</v>
       </c>
       <c r="H52" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1915300</v>
+        <v>1930000</v>
       </c>
       <c r="E54" s="3">
-        <v>2039400</v>
+        <v>2055000</v>
       </c>
       <c r="F54" s="3">
-        <v>3030200</v>
+        <v>3053400</v>
       </c>
       <c r="G54" s="3">
-        <v>2851900</v>
+        <v>2873700</v>
       </c>
       <c r="H54" s="3">
-        <v>1222200</v>
+        <v>1231500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>79600</v>
+        <v>80200</v>
       </c>
       <c r="E58" s="3">
-        <v>136300</v>
+        <v>137400</v>
       </c>
       <c r="F58" s="3">
-        <v>659700</v>
+        <v>664800</v>
       </c>
       <c r="G58" s="3">
-        <v>549900</v>
+        <v>554100</v>
       </c>
       <c r="H58" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31900</v>
+        <v>32200</v>
       </c>
       <c r="E59" s="3">
-        <v>33200</v>
+        <v>33500</v>
       </c>
       <c r="F59" s="3">
-        <v>114500</v>
+        <v>115400</v>
       </c>
       <c r="G59" s="3">
-        <v>70800</v>
+        <v>71300</v>
       </c>
       <c r="H59" s="3">
-        <v>23100</v>
+        <v>23300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>884500</v>
+        <v>891300</v>
       </c>
       <c r="E61" s="3">
-        <v>1041500</v>
+        <v>1049400</v>
       </c>
       <c r="F61" s="3">
-        <v>1739500</v>
+        <v>1752900</v>
       </c>
       <c r="G61" s="3">
-        <v>1909400</v>
+        <v>1924000</v>
       </c>
       <c r="H61" s="3">
-        <v>968100</v>
+        <v>975600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>62100</v>
+        <v>62600</v>
       </c>
       <c r="E62" s="3">
-        <v>56200</v>
+        <v>56700</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1329500</v>
+        <v>1339700</v>
       </c>
       <c r="E66" s="3">
-        <v>1476000</v>
+        <v>1487300</v>
       </c>
       <c r="F66" s="3">
-        <v>2553400</v>
+        <v>2572900</v>
       </c>
       <c r="G66" s="3">
-        <v>2565200</v>
+        <v>2584800</v>
       </c>
       <c r="H66" s="3">
-        <v>1047000</v>
+        <v>1055000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>432000</v>
+        <v>435300</v>
       </c>
       <c r="E72" s="3">
-        <v>416800</v>
+        <v>420000</v>
       </c>
       <c r="F72" s="3">
-        <v>333100</v>
+        <v>335600</v>
       </c>
       <c r="G72" s="3">
-        <v>198300</v>
+        <v>199800</v>
       </c>
       <c r="H72" s="3">
-        <v>114900</v>
+        <v>115800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>585700</v>
+        <v>590200</v>
       </c>
       <c r="E76" s="3">
-        <v>563400</v>
+        <v>567700</v>
       </c>
       <c r="F76" s="3">
-        <v>476800</v>
+        <v>480500</v>
       </c>
       <c r="G76" s="3">
-        <v>286700</v>
+        <v>288900</v>
       </c>
       <c r="H76" s="3">
-        <v>175100</v>
+        <v>176500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="E81" s="3">
-        <v>83700</v>
+        <v>84300</v>
       </c>
       <c r="F81" s="3">
-        <v>134800</v>
+        <v>135800</v>
       </c>
       <c r="G81" s="3">
-        <v>83400</v>
+        <v>84000</v>
       </c>
       <c r="H81" s="3">
-        <v>36900</v>
+        <v>37100</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,7 +2906,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E83" s="3">
         <v>1700</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>175300</v>
+        <v>176600</v>
       </c>
       <c r="E89" s="3">
-        <v>203400</v>
+        <v>204900</v>
       </c>
       <c r="F89" s="3">
-        <v>208600</v>
+        <v>210200</v>
       </c>
       <c r="G89" s="3">
-        <v>201400</v>
+        <v>203000</v>
       </c>
       <c r="H89" s="3">
-        <v>59500</v>
+        <v>59900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>82000</v>
+        <v>82700</v>
       </c>
       <c r="E94" s="3">
-        <v>772900</v>
+        <v>778800</v>
       </c>
       <c r="F94" s="3">
-        <v>100400</v>
+        <v>101200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1500500</v>
+        <v>-1512000</v>
       </c>
       <c r="H94" s="3">
-        <v>-735900</v>
+        <v>-741500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-214000</v>
+        <v>-215700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1204800</v>
+        <v>-1214100</v>
       </c>
       <c r="F100" s="3">
         <v>-400</v>
       </c>
       <c r="G100" s="3">
-        <v>1449200</v>
+        <v>1460300</v>
       </c>
       <c r="H100" s="3">
-        <v>671800</v>
+        <v>677000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>40000</v>
+        <v>40300</v>
       </c>
       <c r="E102" s="3">
-        <v>-228000</v>
+        <v>-229700</v>
       </c>
       <c r="F102" s="3">
-        <v>308600</v>
+        <v>311000</v>
       </c>
       <c r="G102" s="3">
-        <v>149900</v>
+        <v>151000</v>
       </c>
       <c r="H102" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,29 +711,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>320900</v>
+        <v>206000</v>
       </c>
       <c r="E8" s="3">
-        <v>488800</v>
+        <v>299800</v>
       </c>
       <c r="F8" s="3">
-        <v>675400</v>
+        <v>456600</v>
       </c>
       <c r="G8" s="3">
-        <v>540000</v>
+        <v>630900</v>
       </c>
       <c r="H8" s="3">
-        <v>212500</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>504400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>198400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -744,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>184800</v>
+        <v>177000</v>
       </c>
       <c r="E9" s="3">
-        <v>238100</v>
+        <v>172600</v>
       </c>
       <c r="F9" s="3">
-        <v>306500</v>
+        <v>222400</v>
       </c>
       <c r="G9" s="3">
-        <v>222400</v>
+        <v>286300</v>
       </c>
       <c r="H9" s="3">
-        <v>69800</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>207800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>65200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -777,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>136200</v>
+        <v>29000</v>
       </c>
       <c r="E10" s="3">
-        <v>250700</v>
+        <v>127200</v>
       </c>
       <c r="F10" s="3">
-        <v>368900</v>
+        <v>234200</v>
       </c>
       <c r="G10" s="3">
-        <v>317600</v>
+        <v>344600</v>
       </c>
       <c r="H10" s="3">
-        <v>142600</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>296600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>133200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,29 +838,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>1600</v>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>800</v>
-      </c>
       <c r="H12" s="3">
+        <v>700</v>
+      </c>
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -903,17 +922,17 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>8400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -924,30 +943,33 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>295300</v>
+        <v>192200</v>
       </c>
       <c r="E17" s="3">
-        <v>375100</v>
+        <v>275800</v>
       </c>
       <c r="F17" s="3">
-        <v>492800</v>
+        <v>350400</v>
       </c>
       <c r="G17" s="3">
-        <v>412400</v>
+        <v>460300</v>
       </c>
       <c r="H17" s="3">
-        <v>167000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>385200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>156000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,29 +1028,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25700</v>
+        <v>13800</v>
       </c>
       <c r="E18" s="3">
-        <v>113700</v>
+        <v>24000</v>
       </c>
       <c r="F18" s="3">
-        <v>182600</v>
+        <v>106200</v>
       </c>
       <c r="G18" s="3">
-        <v>127600</v>
+        <v>170600</v>
       </c>
       <c r="H18" s="3">
-        <v>45400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>119200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>42400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,8 +1083,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1071,8 +1104,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1083,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>26600</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>115500</v>
+        <v>24900</v>
       </c>
       <c r="F21" s="3">
-        <v>184700</v>
+        <v>107900</v>
       </c>
       <c r="G21" s="3">
-        <v>129300</v>
+        <v>172600</v>
       </c>
       <c r="H21" s="3">
-        <v>46500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>120800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>43400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,29 +1188,32 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25700</v>
+        <v>13800</v>
       </c>
       <c r="E23" s="3">
-        <v>113700</v>
+        <v>24000</v>
       </c>
       <c r="F23" s="3">
-        <v>182600</v>
+        <v>106200</v>
       </c>
       <c r="G23" s="3">
-        <v>127600</v>
+        <v>170600</v>
       </c>
       <c r="H23" s="3">
-        <v>45400</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>119200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>42400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1182,29 +1224,32 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7500</v>
+        <v>4200</v>
       </c>
       <c r="E24" s="3">
-        <v>29400</v>
+        <v>7100</v>
       </c>
       <c r="F24" s="3">
-        <v>46800</v>
+        <v>27500</v>
       </c>
       <c r="G24" s="3">
-        <v>43500</v>
+        <v>43700</v>
       </c>
       <c r="H24" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>40700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7800</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18100</v>
+        <v>9600</v>
       </c>
       <c r="E26" s="3">
-        <v>84300</v>
+        <v>16900</v>
       </c>
       <c r="F26" s="3">
-        <v>135800</v>
+        <v>78800</v>
       </c>
       <c r="G26" s="3">
-        <v>84000</v>
+        <v>126900</v>
       </c>
       <c r="H26" s="3">
-        <v>37100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>78500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>34700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,29 +1332,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18100</v>
+        <v>9600</v>
       </c>
       <c r="E27" s="3">
-        <v>84300</v>
+        <v>16900</v>
       </c>
       <c r="F27" s="3">
-        <v>135800</v>
+        <v>78800</v>
       </c>
       <c r="G27" s="3">
-        <v>84000</v>
+        <v>126900</v>
       </c>
       <c r="H27" s="3">
-        <v>37100</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>78500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>34700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,9 +1512,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1467,8 +1536,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1479,29 +1548,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18100</v>
+        <v>9600</v>
       </c>
       <c r="E33" s="3">
-        <v>84300</v>
+        <v>16900</v>
       </c>
       <c r="F33" s="3">
-        <v>135800</v>
+        <v>78800</v>
       </c>
       <c r="G33" s="3">
-        <v>84000</v>
+        <v>126900</v>
       </c>
       <c r="H33" s="3">
-        <v>37100</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>78500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>34700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,29 +1620,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18100</v>
+        <v>9600</v>
       </c>
       <c r="E35" s="3">
-        <v>84300</v>
+        <v>16900</v>
       </c>
       <c r="F35" s="3">
-        <v>135800</v>
+        <v>78800</v>
       </c>
       <c r="G35" s="3">
-        <v>84000</v>
+        <v>126900</v>
       </c>
       <c r="H35" s="3">
-        <v>37100</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>78500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>34700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>309400</v>
+        <v>328800</v>
       </c>
       <c r="E41" s="3">
-        <v>269000</v>
+        <v>289000</v>
       </c>
       <c r="F41" s="3">
-        <v>498800</v>
+        <v>251300</v>
       </c>
       <c r="G41" s="3">
-        <v>187800</v>
+        <v>465900</v>
       </c>
       <c r="H41" s="3">
-        <v>36800</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>175400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>34400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1679,9 +1765,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,9 +1801,12 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1727,14 +1819,14 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>2400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,9 +1873,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1793,14 +1891,14 @@
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="3">
-        <v>2100</v>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3">
-        <v>800</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>1900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1811,9 +1909,12 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1844,29 +1945,32 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1508400</v>
+        <v>1534900</v>
       </c>
       <c r="E47" s="3">
-        <v>1742600</v>
+        <v>1409000</v>
       </c>
       <c r="F47" s="3">
-        <v>2501900</v>
+        <v>1627700</v>
       </c>
       <c r="G47" s="3">
-        <v>2645900</v>
+        <v>2336900</v>
       </c>
       <c r="H47" s="3">
-        <v>1163600</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>2471500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1086900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1877,29 +1981,32 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="E48" s="3">
-        <v>7500</v>
+        <v>3600</v>
       </c>
       <c r="F48" s="3">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G48" s="3">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="H48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>3300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1910,29 +2017,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>600</v>
       </c>
-      <c r="F49" s="3">
-        <v>700</v>
-      </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12000</v>
+        <v>6800</v>
       </c>
       <c r="E52" s="3">
-        <v>2600</v>
+        <v>11200</v>
       </c>
       <c r="F52" s="3">
-        <v>34300</v>
+        <v>2400</v>
       </c>
       <c r="G52" s="3">
-        <v>17800</v>
+        <v>32100</v>
       </c>
       <c r="H52" s="3">
-        <v>8800</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>16600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>8200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1930000</v>
+        <v>2123700</v>
       </c>
       <c r="E54" s="3">
-        <v>2055000</v>
+        <v>1802700</v>
       </c>
       <c r="F54" s="3">
-        <v>3053400</v>
+        <v>1919500</v>
       </c>
       <c r="G54" s="3">
-        <v>2873700</v>
+        <v>2852100</v>
       </c>
       <c r="H54" s="3">
-        <v>1231500</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>2684300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1150300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,8 +2268,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2171,62 +2301,68 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>80200</v>
+        <v>6700</v>
       </c>
       <c r="E58" s="3">
-        <v>137400</v>
+        <v>74900</v>
       </c>
       <c r="F58" s="3">
-        <v>664800</v>
+        <v>128300</v>
       </c>
       <c r="G58" s="3">
-        <v>554100</v>
+        <v>621000</v>
       </c>
       <c r="H58" s="3">
-        <v>22400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>517500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>20900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>32200</v>
+        <v>26800</v>
       </c>
       <c r="E59" s="3">
-        <v>33500</v>
+        <v>30100</v>
       </c>
       <c r="F59" s="3">
-        <v>115400</v>
+        <v>31300</v>
       </c>
       <c r="G59" s="3">
-        <v>71300</v>
+        <v>107800</v>
       </c>
       <c r="H59" s="3">
-        <v>23300</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>66600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>21800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2237,9 +2373,12 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2270,29 +2409,32 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>891300</v>
+        <v>1185100</v>
       </c>
       <c r="E61" s="3">
-        <v>1049400</v>
+        <v>832500</v>
       </c>
       <c r="F61" s="3">
-        <v>1752900</v>
+        <v>980300</v>
       </c>
       <c r="G61" s="3">
-        <v>1924000</v>
+        <v>1637300</v>
       </c>
       <c r="H61" s="3">
-        <v>975600</v>
+        <v>1797200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>911300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2303,30 +2445,33 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>62600</v>
+        <v>28000</v>
       </c>
       <c r="E62" s="3">
-        <v>56700</v>
+        <v>58400</v>
       </c>
       <c r="F62" s="3">
+        <v>52900</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1339700</v>
+        <v>1561000</v>
       </c>
       <c r="E66" s="3">
-        <v>1487300</v>
+        <v>1251400</v>
       </c>
       <c r="F66" s="3">
-        <v>2572900</v>
+        <v>1389300</v>
       </c>
       <c r="G66" s="3">
-        <v>2584800</v>
+        <v>2403300</v>
       </c>
       <c r="H66" s="3">
-        <v>1055000</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>2414400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>985500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,29 +2785,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>435300</v>
+        <v>416200</v>
       </c>
       <c r="E72" s="3">
-        <v>420000</v>
+        <v>406600</v>
       </c>
       <c r="F72" s="3">
-        <v>335600</v>
+        <v>392300</v>
       </c>
       <c r="G72" s="3">
-        <v>199800</v>
+        <v>313500</v>
       </c>
       <c r="H72" s="3">
-        <v>115800</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>186600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>108200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,29 +2929,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>590200</v>
+        <v>562600</v>
       </c>
       <c r="E76" s="3">
-        <v>567700</v>
+        <v>551300</v>
       </c>
       <c r="F76" s="3">
-        <v>480500</v>
+        <v>530300</v>
       </c>
       <c r="G76" s="3">
-        <v>288900</v>
+        <v>448800</v>
       </c>
       <c r="H76" s="3">
-        <v>176500</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>269900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>164800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,29 +3042,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18100</v>
+        <v>9600</v>
       </c>
       <c r="E81" s="3">
-        <v>84300</v>
+        <v>16900</v>
       </c>
       <c r="F81" s="3">
-        <v>135800</v>
+        <v>78800</v>
       </c>
       <c r="G81" s="3">
-        <v>84000</v>
+        <v>126900</v>
       </c>
       <c r="H81" s="3">
-        <v>37100</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>78500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>34700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,29 +3097,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
+        <v>900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,29 +3310,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>176600</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>204900</v>
+        <v>165000</v>
       </c>
       <c r="F89" s="3">
-        <v>210200</v>
+        <v>191400</v>
       </c>
       <c r="G89" s="3">
-        <v>203000</v>
+        <v>196400</v>
       </c>
       <c r="H89" s="3">
-        <v>59900</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>189600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>56000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,28 +3365,29 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G91" s="3">
-        <v>-3100</v>
+        <v>-2200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-2900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,29 +3470,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>82700</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>778800</v>
+        <v>77200</v>
       </c>
       <c r="F94" s="3">
-        <v>101200</v>
+        <v>727400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1512000</v>
+        <v>94500</v>
       </c>
       <c r="H94" s="3">
-        <v>-741500</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-1412300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-692700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,29 +3666,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-215700</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>-1214100</v>
+        <v>-201500</v>
       </c>
       <c r="F100" s="3">
+        <v>-1134000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
-        <v>1460300</v>
-      </c>
       <c r="H100" s="3">
-        <v>677000</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>1364100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>632300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3457,30 +3702,33 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-3300</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,29 +3738,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>40300</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-229700</v>
+        <v>37700</v>
       </c>
       <c r="F102" s="3">
-        <v>311000</v>
+        <v>-214600</v>
       </c>
       <c r="G102" s="3">
-        <v>151000</v>
+        <v>290500</v>
       </c>
       <c r="H102" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>141100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-4000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>206000</v>
+        <v>204200</v>
       </c>
       <c r="E8" s="3">
-        <v>299800</v>
+        <v>297100</v>
       </c>
       <c r="F8" s="3">
-        <v>456600</v>
+        <v>452500</v>
       </c>
       <c r="G8" s="3">
-        <v>630900</v>
+        <v>625200</v>
       </c>
       <c r="H8" s="3">
-        <v>504400</v>
+        <v>499800</v>
       </c>
       <c r="I8" s="3">
-        <v>198400</v>
+        <v>196700</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>177000</v>
+        <v>175400</v>
       </c>
       <c r="E9" s="3">
-        <v>172600</v>
+        <v>167400</v>
       </c>
       <c r="F9" s="3">
-        <v>222400</v>
+        <v>216700</v>
       </c>
       <c r="G9" s="3">
-        <v>286300</v>
+        <v>283700</v>
       </c>
       <c r="H9" s="3">
-        <v>207800</v>
+        <v>205900</v>
       </c>
       <c r="I9" s="3">
-        <v>65200</v>
+        <v>64600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>29000</v>
+        <v>28700</v>
       </c>
       <c r="E10" s="3">
-        <v>127200</v>
+        <v>129700</v>
       </c>
       <c r="F10" s="3">
-        <v>234200</v>
+        <v>235800</v>
       </c>
       <c r="G10" s="3">
-        <v>344600</v>
+        <v>341400</v>
       </c>
       <c r="H10" s="3">
-        <v>296600</v>
+        <v>294000</v>
       </c>
       <c r="I10" s="3">
-        <v>133200</v>
+        <v>132000</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -844,8 +844,8 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>1500</v>
@@ -860,7 +860,7 @@
         <v>700</v>
       </c>
       <c r="I12" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -916,14 +916,14 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3700</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -952,8 +952,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>600</v>
       </c>
       <c r="E15" s="3">
         <v>900</v>
@@ -962,7 +962,7 @@
         <v>1600</v>
       </c>
       <c r="G15" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H15" s="3">
         <v>1600</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>192200</v>
+        <v>190500</v>
       </c>
       <c r="E17" s="3">
-        <v>275800</v>
+        <v>273300</v>
       </c>
       <c r="F17" s="3">
-        <v>350400</v>
+        <v>347200</v>
       </c>
       <c r="G17" s="3">
-        <v>460300</v>
+        <v>456100</v>
       </c>
       <c r="H17" s="3">
-        <v>385200</v>
+        <v>381800</v>
       </c>
       <c r="I17" s="3">
-        <v>156000</v>
+        <v>154600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="E18" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="F18" s="3">
-        <v>106200</v>
+        <v>105300</v>
       </c>
       <c r="G18" s="3">
-        <v>170600</v>
+        <v>169100</v>
       </c>
       <c r="H18" s="3">
-        <v>119200</v>
+        <v>118100</v>
       </c>
       <c r="I18" s="3">
-        <v>42400</v>
+        <v>42100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1125,23 +1125,23 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>14200</v>
       </c>
       <c r="E21" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="F21" s="3">
-        <v>107900</v>
+        <v>106900</v>
       </c>
       <c r="G21" s="3">
-        <v>172600</v>
+        <v>171000</v>
       </c>
       <c r="H21" s="3">
-        <v>120800</v>
+        <v>119700</v>
       </c>
       <c r="I21" s="3">
-        <v>43400</v>
+        <v>43000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="E23" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="F23" s="3">
-        <v>106200</v>
+        <v>105300</v>
       </c>
       <c r="G23" s="3">
-        <v>170600</v>
+        <v>169100</v>
       </c>
       <c r="H23" s="3">
-        <v>119200</v>
+        <v>118100</v>
       </c>
       <c r="I23" s="3">
-        <v>42400</v>
+        <v>42100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1237,19 +1237,19 @@
         <v>4200</v>
       </c>
       <c r="E24" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="F24" s="3">
-        <v>27500</v>
+        <v>27200</v>
       </c>
       <c r="G24" s="3">
-        <v>43700</v>
+        <v>43300</v>
       </c>
       <c r="H24" s="3">
-        <v>40700</v>
+        <v>40300</v>
       </c>
       <c r="I24" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="E26" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F26" s="3">
-        <v>78800</v>
+        <v>78100</v>
       </c>
       <c r="G26" s="3">
-        <v>126900</v>
+        <v>125700</v>
       </c>
       <c r="H26" s="3">
-        <v>78500</v>
+        <v>77800</v>
       </c>
       <c r="I26" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="E27" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F27" s="3">
-        <v>78800</v>
+        <v>78100</v>
       </c>
       <c r="G27" s="3">
-        <v>126900</v>
+        <v>125700</v>
       </c>
       <c r="H27" s="3">
-        <v>78500</v>
+        <v>77800</v>
       </c>
       <c r="I27" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="E33" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F33" s="3">
-        <v>78800</v>
+        <v>78100</v>
       </c>
       <c r="G33" s="3">
-        <v>126900</v>
+        <v>125700</v>
       </c>
       <c r="H33" s="3">
-        <v>78500</v>
+        <v>77800</v>
       </c>
       <c r="I33" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="E35" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F35" s="3">
-        <v>78800</v>
+        <v>78100</v>
       </c>
       <c r="G35" s="3">
-        <v>126900</v>
+        <v>125700</v>
       </c>
       <c r="H35" s="3">
-        <v>78500</v>
+        <v>77800</v>
       </c>
       <c r="I35" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>328800</v>
+        <v>325900</v>
       </c>
       <c r="E41" s="3">
-        <v>289000</v>
+        <v>286400</v>
       </c>
       <c r="F41" s="3">
-        <v>251300</v>
+        <v>249000</v>
       </c>
       <c r="G41" s="3">
-        <v>465900</v>
+        <v>461700</v>
       </c>
       <c r="H41" s="3">
-        <v>175400</v>
+        <v>173800</v>
       </c>
       <c r="I41" s="3">
-        <v>34400</v>
+        <v>34000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I43" s="3">
         <v>2400</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1534900</v>
+        <v>1524500</v>
       </c>
       <c r="E47" s="3">
-        <v>1409000</v>
+        <v>1396300</v>
       </c>
       <c r="F47" s="3">
-        <v>1627700</v>
+        <v>1613000</v>
       </c>
       <c r="G47" s="3">
-        <v>2336900</v>
+        <v>2315900</v>
       </c>
       <c r="H47" s="3">
-        <v>2471500</v>
+        <v>2449200</v>
       </c>
       <c r="I47" s="3">
-        <v>1086900</v>
+        <v>1077100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1994,10 +1994,10 @@
         <v>2800</v>
       </c>
       <c r="E48" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F48" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="G48" s="3">
         <v>2800</v>
@@ -2006,7 +2006,7 @@
         <v>3300</v>
       </c>
       <c r="I48" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2033,7 +2033,7 @@
         <v>500</v>
       </c>
       <c r="F49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G49" s="3">
         <v>600</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6800</v>
+        <v>3100</v>
       </c>
       <c r="E52" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="F52" s="3">
         <v>2400</v>
       </c>
       <c r="G52" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="H52" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="I52" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2123700</v>
+        <v>2100800</v>
       </c>
       <c r="E54" s="3">
-        <v>1802700</v>
+        <v>1786500</v>
       </c>
       <c r="F54" s="3">
-        <v>1919500</v>
+        <v>1902200</v>
       </c>
       <c r="G54" s="3">
-        <v>2852100</v>
+        <v>2826400</v>
       </c>
       <c r="H54" s="3">
-        <v>2684300</v>
+        <v>2660100</v>
       </c>
       <c r="I54" s="3">
-        <v>1150300</v>
+        <v>1140000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2311,22 +2311,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="E58" s="3">
-        <v>74900</v>
+        <v>74300</v>
       </c>
       <c r="F58" s="3">
-        <v>128300</v>
+        <v>127200</v>
       </c>
       <c r="G58" s="3">
-        <v>621000</v>
+        <v>615400</v>
       </c>
       <c r="H58" s="3">
-        <v>517500</v>
+        <v>512900</v>
       </c>
       <c r="I58" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26800</v>
+        <v>28400</v>
       </c>
       <c r="E59" s="3">
-        <v>30100</v>
+        <v>29800</v>
       </c>
       <c r="F59" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="G59" s="3">
-        <v>107800</v>
+        <v>106800</v>
       </c>
       <c r="H59" s="3">
-        <v>66600</v>
+        <v>66000</v>
       </c>
       <c r="I59" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2419,22 +2419,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1185100</v>
+        <v>1174400</v>
       </c>
       <c r="E61" s="3">
-        <v>832500</v>
+        <v>825000</v>
       </c>
       <c r="F61" s="3">
-        <v>980300</v>
+        <v>971400</v>
       </c>
       <c r="G61" s="3">
-        <v>1637300</v>
+        <v>1622500</v>
       </c>
       <c r="H61" s="3">
-        <v>1797200</v>
+        <v>1781000</v>
       </c>
       <c r="I61" s="3">
-        <v>911300</v>
+        <v>903000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2455,13 +2455,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28000</v>
+        <v>22200</v>
       </c>
       <c r="E62" s="3">
-        <v>58400</v>
+        <v>57900</v>
       </c>
       <c r="F62" s="3">
-        <v>52900</v>
+        <v>52500</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1561000</v>
+        <v>1543200</v>
       </c>
       <c r="E66" s="3">
-        <v>1251400</v>
+        <v>1240100</v>
       </c>
       <c r="F66" s="3">
-        <v>1389300</v>
+        <v>1376700</v>
       </c>
       <c r="G66" s="3">
-        <v>2403300</v>
+        <v>2381600</v>
       </c>
       <c r="H66" s="3">
-        <v>2414400</v>
+        <v>2392600</v>
       </c>
       <c r="I66" s="3">
-        <v>985500</v>
+        <v>976600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>416200</v>
+        <v>412400</v>
       </c>
       <c r="E72" s="3">
-        <v>406600</v>
+        <v>402900</v>
       </c>
       <c r="F72" s="3">
-        <v>392300</v>
+        <v>388800</v>
       </c>
       <c r="G72" s="3">
-        <v>313500</v>
+        <v>310700</v>
       </c>
       <c r="H72" s="3">
-        <v>186600</v>
+        <v>185000</v>
       </c>
       <c r="I72" s="3">
-        <v>108200</v>
+        <v>107200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>562600</v>
+        <v>557600</v>
       </c>
       <c r="E76" s="3">
-        <v>551300</v>
+        <v>546300</v>
       </c>
       <c r="F76" s="3">
-        <v>530300</v>
+        <v>525500</v>
       </c>
       <c r="G76" s="3">
-        <v>448800</v>
+        <v>444700</v>
       </c>
       <c r="H76" s="3">
-        <v>269900</v>
+        <v>267400</v>
       </c>
       <c r="I76" s="3">
-        <v>164800</v>
+        <v>163400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="E81" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F81" s="3">
-        <v>78800</v>
+        <v>78100</v>
       </c>
       <c r="G81" s="3">
-        <v>126900</v>
+        <v>125700</v>
       </c>
       <c r="H81" s="3">
-        <v>78500</v>
+        <v>77800</v>
       </c>
       <c r="I81" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3103,8 +3103,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>900</v>
@@ -3113,7 +3113,7 @@
         <v>1600</v>
       </c>
       <c r="G83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H83" s="3">
         <v>1600</v>
@@ -3319,23 +3319,23 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>100700</v>
       </c>
       <c r="E89" s="3">
-        <v>165000</v>
+        <v>163500</v>
       </c>
       <c r="F89" s="3">
-        <v>191400</v>
+        <v>189700</v>
       </c>
       <c r="G89" s="3">
-        <v>196400</v>
+        <v>194600</v>
       </c>
       <c r="H89" s="3">
-        <v>189600</v>
+        <v>187900</v>
       </c>
       <c r="I89" s="3">
-        <v>56000</v>
+        <v>55500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3371,14 +3371,14 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-600</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>
       </c>
       <c r="F91" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="G91" s="3">
         <v>-2200</v>
@@ -3479,23 +3479,23 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-343300</v>
       </c>
       <c r="E94" s="3">
-        <v>77200</v>
+        <v>76500</v>
       </c>
       <c r="F94" s="3">
-        <v>727400</v>
+        <v>720900</v>
       </c>
       <c r="G94" s="3">
-        <v>94500</v>
+        <v>93700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1412300</v>
+        <v>-1399500</v>
       </c>
       <c r="I94" s="3">
-        <v>-692700</v>
+        <v>-686400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3675,23 +3675,23 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>282200</v>
       </c>
       <c r="E100" s="3">
-        <v>-201500</v>
+        <v>-199600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1134000</v>
+        <v>-1123800</v>
       </c>
       <c r="G100" s="3">
         <v>-400</v>
       </c>
       <c r="H100" s="3">
-        <v>1364100</v>
+        <v>1351800</v>
       </c>
       <c r="I100" s="3">
-        <v>632300</v>
+        <v>626600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3711,8 +3711,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
         <v>-3100</v>
@@ -3747,23 +3747,23 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>39500</v>
       </c>
       <c r="E102" s="3">
-        <v>37700</v>
+        <v>37300</v>
       </c>
       <c r="F102" s="3">
-        <v>-214600</v>
+        <v>-212700</v>
       </c>
       <c r="G102" s="3">
-        <v>290500</v>
+        <v>287900</v>
       </c>
       <c r="H102" s="3">
-        <v>141100</v>
+        <v>139800</v>
       </c>
       <c r="I102" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>204200</v>
+        <v>194600</v>
       </c>
       <c r="E8" s="3">
-        <v>297100</v>
+        <v>283200</v>
       </c>
       <c r="F8" s="3">
-        <v>452500</v>
+        <v>431300</v>
       </c>
       <c r="G8" s="3">
-        <v>625200</v>
+        <v>596000</v>
       </c>
       <c r="H8" s="3">
-        <v>499800</v>
+        <v>476500</v>
       </c>
       <c r="I8" s="3">
-        <v>196700</v>
+        <v>187500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>175400</v>
+        <v>167200</v>
       </c>
       <c r="E9" s="3">
-        <v>167400</v>
+        <v>159600</v>
       </c>
       <c r="F9" s="3">
-        <v>216700</v>
+        <v>206600</v>
       </c>
       <c r="G9" s="3">
-        <v>283700</v>
+        <v>270500</v>
       </c>
       <c r="H9" s="3">
-        <v>205900</v>
+        <v>196300</v>
       </c>
       <c r="I9" s="3">
-        <v>64600</v>
+        <v>61600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>28700</v>
+        <v>27400</v>
       </c>
       <c r="E10" s="3">
-        <v>129700</v>
+        <v>123600</v>
       </c>
       <c r="F10" s="3">
-        <v>235800</v>
+        <v>224800</v>
       </c>
       <c r="G10" s="3">
-        <v>341400</v>
+        <v>325500</v>
       </c>
       <c r="H10" s="3">
-        <v>294000</v>
+        <v>280200</v>
       </c>
       <c r="I10" s="3">
-        <v>132000</v>
+        <v>125800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -848,10 +848,10 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -917,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E14" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="F14" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -953,22 +953,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F15" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G15" s="3">
         <v>1900</v>
       </c>
       <c r="H15" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I15" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>190500</v>
+        <v>181600</v>
       </c>
       <c r="E17" s="3">
-        <v>273300</v>
+        <v>260500</v>
       </c>
       <c r="F17" s="3">
-        <v>347200</v>
+        <v>331000</v>
       </c>
       <c r="G17" s="3">
-        <v>456100</v>
+        <v>434800</v>
       </c>
       <c r="H17" s="3">
-        <v>381800</v>
+        <v>363900</v>
       </c>
       <c r="I17" s="3">
-        <v>154600</v>
+        <v>147400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="E18" s="3">
-        <v>23800</v>
+        <v>22600</v>
       </c>
       <c r="F18" s="3">
-        <v>105300</v>
+        <v>100400</v>
       </c>
       <c r="G18" s="3">
-        <v>169100</v>
+        <v>161200</v>
       </c>
       <c r="H18" s="3">
-        <v>118100</v>
+        <v>112600</v>
       </c>
       <c r="I18" s="3">
-        <v>42100</v>
+        <v>40100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="E21" s="3">
-        <v>24600</v>
+        <v>23500</v>
       </c>
       <c r="F21" s="3">
-        <v>106900</v>
+        <v>101900</v>
       </c>
       <c r="G21" s="3">
-        <v>171000</v>
+        <v>163000</v>
       </c>
       <c r="H21" s="3">
-        <v>119700</v>
+        <v>114100</v>
       </c>
       <c r="I21" s="3">
-        <v>43000</v>
+        <v>41000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="E23" s="3">
-        <v>23800</v>
+        <v>22600</v>
       </c>
       <c r="F23" s="3">
-        <v>105300</v>
+        <v>100400</v>
       </c>
       <c r="G23" s="3">
-        <v>169100</v>
+        <v>161200</v>
       </c>
       <c r="H23" s="3">
-        <v>118100</v>
+        <v>112600</v>
       </c>
       <c r="I23" s="3">
-        <v>42100</v>
+        <v>40100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E24" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F24" s="3">
-        <v>27200</v>
+        <v>25900</v>
       </c>
       <c r="G24" s="3">
-        <v>43300</v>
+        <v>41300</v>
       </c>
       <c r="H24" s="3">
-        <v>40300</v>
+        <v>38400</v>
       </c>
       <c r="I24" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="E26" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="F26" s="3">
-        <v>78100</v>
+        <v>74400</v>
       </c>
       <c r="G26" s="3">
-        <v>125700</v>
+        <v>119800</v>
       </c>
       <c r="H26" s="3">
-        <v>77800</v>
+        <v>74100</v>
       </c>
       <c r="I26" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="E27" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="F27" s="3">
-        <v>78100</v>
+        <v>74400</v>
       </c>
       <c r="G27" s="3">
-        <v>125700</v>
+        <v>119800</v>
       </c>
       <c r="H27" s="3">
-        <v>77800</v>
+        <v>74100</v>
       </c>
       <c r="I27" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="E33" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="F33" s="3">
-        <v>78100</v>
+        <v>74400</v>
       </c>
       <c r="G33" s="3">
-        <v>125700</v>
+        <v>119800</v>
       </c>
       <c r="H33" s="3">
-        <v>77800</v>
+        <v>74100</v>
       </c>
       <c r="I33" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="E35" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="F35" s="3">
-        <v>78100</v>
+        <v>74400</v>
       </c>
       <c r="G35" s="3">
-        <v>125700</v>
+        <v>119800</v>
       </c>
       <c r="H35" s="3">
-        <v>77800</v>
+        <v>74100</v>
       </c>
       <c r="I35" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>325900</v>
+        <v>310600</v>
       </c>
       <c r="E41" s="3">
-        <v>286400</v>
+        <v>273000</v>
       </c>
       <c r="F41" s="3">
-        <v>249000</v>
+        <v>237400</v>
       </c>
       <c r="G41" s="3">
-        <v>461700</v>
+        <v>440100</v>
       </c>
       <c r="H41" s="3">
-        <v>173800</v>
+        <v>165700</v>
       </c>
       <c r="I41" s="3">
-        <v>34000</v>
+        <v>32500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1826,7 +1826,7 @@
         <v>1100</v>
       </c>
       <c r="I43" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1895,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1524500</v>
+        <v>1453200</v>
       </c>
       <c r="E47" s="3">
-        <v>1396300</v>
+        <v>1331000</v>
       </c>
       <c r="F47" s="3">
-        <v>1613000</v>
+        <v>1537600</v>
       </c>
       <c r="G47" s="3">
-        <v>2315900</v>
+        <v>2207500</v>
       </c>
       <c r="H47" s="3">
-        <v>2449200</v>
+        <v>2334600</v>
       </c>
       <c r="I47" s="3">
-        <v>1077100</v>
+        <v>1026700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E48" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F48" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="G48" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H48" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I48" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2030,7 +2030,7 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="E52" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="F52" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G52" s="3">
-        <v>31800</v>
+        <v>30300</v>
       </c>
       <c r="H52" s="3">
-        <v>16400</v>
+        <v>15700</v>
       </c>
       <c r="I52" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2100800</v>
+        <v>2002600</v>
       </c>
       <c r="E54" s="3">
-        <v>1786500</v>
+        <v>1702900</v>
       </c>
       <c r="F54" s="3">
-        <v>1902200</v>
+        <v>1813300</v>
       </c>
       <c r="G54" s="3">
-        <v>2826400</v>
+        <v>2694200</v>
       </c>
       <c r="H54" s="3">
-        <v>2660100</v>
+        <v>2535600</v>
       </c>
       <c r="I54" s="3">
-        <v>1140000</v>
+        <v>1086600</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2311,22 +2311,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="E58" s="3">
-        <v>74300</v>
+        <v>70800</v>
       </c>
       <c r="F58" s="3">
-        <v>127200</v>
+        <v>121200</v>
       </c>
       <c r="G58" s="3">
-        <v>615400</v>
+        <v>586600</v>
       </c>
       <c r="H58" s="3">
-        <v>512900</v>
+        <v>488900</v>
       </c>
       <c r="I58" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E59" s="3">
         <v>28400</v>
       </c>
-      <c r="E59" s="3">
-        <v>29800</v>
-      </c>
       <c r="F59" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="G59" s="3">
-        <v>106800</v>
+        <v>101800</v>
       </c>
       <c r="H59" s="3">
-        <v>66000</v>
+        <v>62900</v>
       </c>
       <c r="I59" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2419,22 +2419,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1174400</v>
+        <v>1119400</v>
       </c>
       <c r="E61" s="3">
-        <v>825000</v>
+        <v>786400</v>
       </c>
       <c r="F61" s="3">
-        <v>971400</v>
+        <v>926000</v>
       </c>
       <c r="G61" s="3">
-        <v>1622500</v>
+        <v>1546600</v>
       </c>
       <c r="H61" s="3">
-        <v>1781000</v>
+        <v>1697700</v>
       </c>
       <c r="I61" s="3">
-        <v>903000</v>
+        <v>860800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2455,13 +2455,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22200</v>
+        <v>21100</v>
       </c>
       <c r="E62" s="3">
-        <v>57900</v>
+        <v>55200</v>
       </c>
       <c r="F62" s="3">
-        <v>52500</v>
+        <v>50000</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1543200</v>
+        <v>1471000</v>
       </c>
       <c r="E66" s="3">
-        <v>1240100</v>
+        <v>1182100</v>
       </c>
       <c r="F66" s="3">
-        <v>1376700</v>
+        <v>1312300</v>
       </c>
       <c r="G66" s="3">
-        <v>2381600</v>
+        <v>2270200</v>
       </c>
       <c r="H66" s="3">
-        <v>2392600</v>
+        <v>2280700</v>
       </c>
       <c r="I66" s="3">
-        <v>976600</v>
+        <v>930900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>412400</v>
+        <v>393100</v>
       </c>
       <c r="E72" s="3">
-        <v>402900</v>
+        <v>384100</v>
       </c>
       <c r="F72" s="3">
-        <v>388800</v>
+        <v>370600</v>
       </c>
       <c r="G72" s="3">
-        <v>310700</v>
+        <v>296100</v>
       </c>
       <c r="H72" s="3">
-        <v>185000</v>
+        <v>176300</v>
       </c>
       <c r="I72" s="3">
-        <v>107200</v>
+        <v>102200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>557600</v>
+        <v>531500</v>
       </c>
       <c r="E76" s="3">
-        <v>546300</v>
+        <v>520800</v>
       </c>
       <c r="F76" s="3">
-        <v>525500</v>
+        <v>500900</v>
       </c>
       <c r="G76" s="3">
-        <v>444700</v>
+        <v>423900</v>
       </c>
       <c r="H76" s="3">
-        <v>267400</v>
+        <v>254900</v>
       </c>
       <c r="I76" s="3">
-        <v>163400</v>
+        <v>155700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="E81" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="F81" s="3">
-        <v>78100</v>
+        <v>74400</v>
       </c>
       <c r="G81" s="3">
-        <v>125700</v>
+        <v>119800</v>
       </c>
       <c r="H81" s="3">
-        <v>77800</v>
+        <v>74100</v>
       </c>
       <c r="I81" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F83" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G83" s="3">
         <v>1900</v>
       </c>
       <c r="H83" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100700</v>
+        <v>96000</v>
       </c>
       <c r="E89" s="3">
-        <v>163500</v>
+        <v>155800</v>
       </c>
       <c r="F89" s="3">
-        <v>189700</v>
+        <v>180800</v>
       </c>
       <c r="G89" s="3">
-        <v>194600</v>
+        <v>185500</v>
       </c>
       <c r="H89" s="3">
-        <v>187900</v>
+        <v>179100</v>
       </c>
       <c r="I89" s="3">
-        <v>55500</v>
+        <v>52900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-343300</v>
+        <v>-327200</v>
       </c>
       <c r="E94" s="3">
-        <v>76500</v>
+        <v>72900</v>
       </c>
       <c r="F94" s="3">
-        <v>720900</v>
+        <v>687200</v>
       </c>
       <c r="G94" s="3">
-        <v>93700</v>
+        <v>89300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1399500</v>
+        <v>-1334100</v>
       </c>
       <c r="I94" s="3">
-        <v>-686400</v>
+        <v>-654300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>282200</v>
+        <v>269000</v>
       </c>
       <c r="E100" s="3">
-        <v>-199600</v>
+        <v>-190300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1123800</v>
+        <v>-1071200</v>
       </c>
       <c r="G100" s="3">
         <v>-400</v>
       </c>
       <c r="H100" s="3">
-        <v>1351800</v>
+        <v>1288500</v>
       </c>
       <c r="I100" s="3">
-        <v>626600</v>
+        <v>597300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3715,10 +3715,10 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>-300</v>
       </c>
       <c r="I101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>39500</v>
+        <v>37700</v>
       </c>
       <c r="E102" s="3">
-        <v>37300</v>
+        <v>35600</v>
       </c>
       <c r="F102" s="3">
-        <v>-212700</v>
+        <v>-202700</v>
       </c>
       <c r="G102" s="3">
-        <v>287900</v>
+        <v>274400</v>
       </c>
       <c r="H102" s="3">
-        <v>139800</v>
+        <v>133200</v>
       </c>
       <c r="I102" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>194600</v>
+        <v>200800</v>
       </c>
       <c r="E8" s="3">
-        <v>283200</v>
+        <v>292200</v>
       </c>
       <c r="F8" s="3">
-        <v>431300</v>
+        <v>445000</v>
       </c>
       <c r="G8" s="3">
-        <v>596000</v>
+        <v>614900</v>
       </c>
       <c r="H8" s="3">
-        <v>476500</v>
+        <v>491600</v>
       </c>
       <c r="I8" s="3">
-        <v>187500</v>
+        <v>193400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>167200</v>
+        <v>172500</v>
       </c>
       <c r="E9" s="3">
-        <v>159600</v>
+        <v>164600</v>
       </c>
       <c r="F9" s="3">
-        <v>206600</v>
+        <v>213100</v>
       </c>
       <c r="G9" s="3">
-        <v>270500</v>
+        <v>279100</v>
       </c>
       <c r="H9" s="3">
-        <v>196300</v>
+        <v>202500</v>
       </c>
       <c r="I9" s="3">
-        <v>61600</v>
+        <v>63600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>27400</v>
+        <v>28300</v>
       </c>
       <c r="E10" s="3">
-        <v>123600</v>
+        <v>127500</v>
       </c>
       <c r="F10" s="3">
-        <v>224800</v>
+        <v>231900</v>
       </c>
       <c r="G10" s="3">
-        <v>325500</v>
+        <v>335800</v>
       </c>
       <c r="H10" s="3">
-        <v>280200</v>
+        <v>289100</v>
       </c>
       <c r="I10" s="3">
-        <v>125800</v>
+        <v>129800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -920,10 +920,10 @@
         <v>1700</v>
       </c>
       <c r="E14" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="F14" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -956,16 +956,16 @@
         <v>500</v>
       </c>
       <c r="E15" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F15" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G15" s="3">
         <v>1900</v>
       </c>
       <c r="H15" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I15" s="3">
         <v>900</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>181600</v>
+        <v>187300</v>
       </c>
       <c r="E17" s="3">
-        <v>260500</v>
+        <v>268800</v>
       </c>
       <c r="F17" s="3">
-        <v>331000</v>
+        <v>341500</v>
       </c>
       <c r="G17" s="3">
-        <v>434800</v>
+        <v>448600</v>
       </c>
       <c r="H17" s="3">
-        <v>363900</v>
+        <v>375500</v>
       </c>
       <c r="I17" s="3">
-        <v>147400</v>
+        <v>152000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="E18" s="3">
-        <v>22600</v>
+        <v>23400</v>
       </c>
       <c r="F18" s="3">
-        <v>100400</v>
+        <v>103600</v>
       </c>
       <c r="G18" s="3">
-        <v>161200</v>
+        <v>166300</v>
       </c>
       <c r="H18" s="3">
-        <v>112600</v>
+        <v>116100</v>
       </c>
       <c r="I18" s="3">
-        <v>40100</v>
+        <v>41400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="E21" s="3">
-        <v>23500</v>
+        <v>24200</v>
       </c>
       <c r="F21" s="3">
-        <v>101900</v>
+        <v>105100</v>
       </c>
       <c r="G21" s="3">
-        <v>163000</v>
+        <v>168200</v>
       </c>
       <c r="H21" s="3">
-        <v>114100</v>
+        <v>117700</v>
       </c>
       <c r="I21" s="3">
-        <v>41000</v>
+        <v>42300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="E23" s="3">
-        <v>22600</v>
+        <v>23400</v>
       </c>
       <c r="F23" s="3">
-        <v>100400</v>
+        <v>103600</v>
       </c>
       <c r="G23" s="3">
-        <v>161200</v>
+        <v>166300</v>
       </c>
       <c r="H23" s="3">
-        <v>112600</v>
+        <v>116100</v>
       </c>
       <c r="I23" s="3">
-        <v>40100</v>
+        <v>41400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E24" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="F24" s="3">
-        <v>25900</v>
+        <v>26800</v>
       </c>
       <c r="G24" s="3">
-        <v>41300</v>
+        <v>42600</v>
       </c>
       <c r="H24" s="3">
-        <v>38400</v>
+        <v>39600</v>
       </c>
       <c r="I24" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="E26" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="F26" s="3">
-        <v>74400</v>
+        <v>76800</v>
       </c>
       <c r="G26" s="3">
-        <v>119800</v>
+        <v>123600</v>
       </c>
       <c r="H26" s="3">
-        <v>74100</v>
+        <v>76500</v>
       </c>
       <c r="I26" s="3">
-        <v>32800</v>
+        <v>33800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="E27" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="F27" s="3">
-        <v>74400</v>
+        <v>76800</v>
       </c>
       <c r="G27" s="3">
-        <v>119800</v>
+        <v>123600</v>
       </c>
       <c r="H27" s="3">
-        <v>74100</v>
+        <v>76500</v>
       </c>
       <c r="I27" s="3">
-        <v>32800</v>
+        <v>33800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="E33" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="F33" s="3">
-        <v>74400</v>
+        <v>76800</v>
       </c>
       <c r="G33" s="3">
-        <v>119800</v>
+        <v>123600</v>
       </c>
       <c r="H33" s="3">
-        <v>74100</v>
+        <v>76500</v>
       </c>
       <c r="I33" s="3">
-        <v>32800</v>
+        <v>33800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="E35" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="F35" s="3">
-        <v>74400</v>
+        <v>76800</v>
       </c>
       <c r="G35" s="3">
-        <v>119800</v>
+        <v>123600</v>
       </c>
       <c r="H35" s="3">
-        <v>74100</v>
+        <v>76500</v>
       </c>
       <c r="I35" s="3">
-        <v>32800</v>
+        <v>33800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>310600</v>
+        <v>320500</v>
       </c>
       <c r="E41" s="3">
-        <v>273000</v>
+        <v>281600</v>
       </c>
       <c r="F41" s="3">
-        <v>237400</v>
+        <v>244900</v>
       </c>
       <c r="G41" s="3">
-        <v>440100</v>
+        <v>454100</v>
       </c>
       <c r="H41" s="3">
-        <v>165700</v>
+        <v>171000</v>
       </c>
       <c r="I41" s="3">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1826,7 +1826,7 @@
         <v>1100</v>
       </c>
       <c r="I43" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1895,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1453200</v>
+        <v>1499400</v>
       </c>
       <c r="E47" s="3">
-        <v>1331000</v>
+        <v>1373200</v>
       </c>
       <c r="F47" s="3">
-        <v>1537600</v>
+        <v>1586400</v>
       </c>
       <c r="G47" s="3">
-        <v>2207500</v>
+        <v>2277600</v>
       </c>
       <c r="H47" s="3">
-        <v>2334600</v>
+        <v>2408700</v>
       </c>
       <c r="I47" s="3">
-        <v>1026700</v>
+        <v>1059300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I48" s="3">
         <v>2700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2030,7 +2030,7 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E52" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="F52" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G52" s="3">
-        <v>30300</v>
+        <v>31300</v>
       </c>
       <c r="H52" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="I52" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2002600</v>
+        <v>2066100</v>
       </c>
       <c r="E54" s="3">
-        <v>1702900</v>
+        <v>1757000</v>
       </c>
       <c r="F54" s="3">
-        <v>1813300</v>
+        <v>1870800</v>
       </c>
       <c r="G54" s="3">
-        <v>2694200</v>
+        <v>2779700</v>
       </c>
       <c r="H54" s="3">
-        <v>2535600</v>
+        <v>2616200</v>
       </c>
       <c r="I54" s="3">
-        <v>1086600</v>
+        <v>1121100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2311,22 +2311,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="E58" s="3">
-        <v>70800</v>
+        <v>73000</v>
       </c>
       <c r="F58" s="3">
-        <v>121200</v>
+        <v>125100</v>
       </c>
       <c r="G58" s="3">
-        <v>586600</v>
+        <v>605200</v>
       </c>
       <c r="H58" s="3">
-        <v>488900</v>
+        <v>504400</v>
       </c>
       <c r="I58" s="3">
-        <v>19700</v>
+        <v>20300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>27100</v>
+        <v>28000</v>
       </c>
       <c r="E59" s="3">
-        <v>28400</v>
+        <v>29300</v>
       </c>
       <c r="F59" s="3">
-        <v>29600</v>
+        <v>30500</v>
       </c>
       <c r="G59" s="3">
-        <v>101800</v>
+        <v>105100</v>
       </c>
       <c r="H59" s="3">
-        <v>62900</v>
+        <v>64900</v>
       </c>
       <c r="I59" s="3">
-        <v>20600</v>
+        <v>21200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2419,22 +2419,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1119400</v>
+        <v>1155000</v>
       </c>
       <c r="E61" s="3">
-        <v>786400</v>
+        <v>811400</v>
       </c>
       <c r="F61" s="3">
-        <v>926000</v>
+        <v>955400</v>
       </c>
       <c r="G61" s="3">
-        <v>1546600</v>
+        <v>1595700</v>
       </c>
       <c r="H61" s="3">
-        <v>1697700</v>
+        <v>1751600</v>
       </c>
       <c r="I61" s="3">
-        <v>860800</v>
+        <v>888100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2455,13 +2455,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21100</v>
+        <v>21800</v>
       </c>
       <c r="E62" s="3">
-        <v>55200</v>
+        <v>57000</v>
       </c>
       <c r="F62" s="3">
-        <v>50000</v>
+        <v>51600</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1471000</v>
+        <v>1517800</v>
       </c>
       <c r="E66" s="3">
-        <v>1182100</v>
+        <v>1219700</v>
       </c>
       <c r="F66" s="3">
-        <v>1312300</v>
+        <v>1354000</v>
       </c>
       <c r="G66" s="3">
-        <v>2270200</v>
+        <v>2342300</v>
       </c>
       <c r="H66" s="3">
-        <v>2280700</v>
+        <v>2353200</v>
       </c>
       <c r="I66" s="3">
-        <v>930900</v>
+        <v>960500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>393100</v>
+        <v>405600</v>
       </c>
       <c r="E72" s="3">
-        <v>384100</v>
+        <v>396300</v>
       </c>
       <c r="F72" s="3">
-        <v>370600</v>
+        <v>382300</v>
       </c>
       <c r="G72" s="3">
-        <v>296100</v>
+        <v>305600</v>
       </c>
       <c r="H72" s="3">
-        <v>176300</v>
+        <v>181900</v>
       </c>
       <c r="I72" s="3">
-        <v>102200</v>
+        <v>105400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>531500</v>
+        <v>548400</v>
       </c>
       <c r="E76" s="3">
-        <v>520800</v>
+        <v>537300</v>
       </c>
       <c r="F76" s="3">
-        <v>500900</v>
+        <v>516800</v>
       </c>
       <c r="G76" s="3">
-        <v>423900</v>
+        <v>437400</v>
       </c>
       <c r="H76" s="3">
-        <v>254900</v>
+        <v>263000</v>
       </c>
       <c r="I76" s="3">
-        <v>155700</v>
+        <v>160700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="E81" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="F81" s="3">
-        <v>74400</v>
+        <v>76800</v>
       </c>
       <c r="G81" s="3">
-        <v>119800</v>
+        <v>123600</v>
       </c>
       <c r="H81" s="3">
-        <v>74100</v>
+        <v>76500</v>
       </c>
       <c r="I81" s="3">
-        <v>32800</v>
+        <v>33800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3107,16 +3107,16 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G83" s="3">
         <v>1900</v>
       </c>
       <c r="H83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I83" s="3">
         <v>900</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>96000</v>
+        <v>99100</v>
       </c>
       <c r="E89" s="3">
-        <v>155800</v>
+        <v>160800</v>
       </c>
       <c r="F89" s="3">
-        <v>180800</v>
+        <v>186600</v>
       </c>
       <c r="G89" s="3">
-        <v>185500</v>
+        <v>191400</v>
       </c>
       <c r="H89" s="3">
-        <v>179100</v>
+        <v>184800</v>
       </c>
       <c r="I89" s="3">
-        <v>52900</v>
+        <v>54600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3375,7 +3375,7 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
@@ -3387,7 +3387,7 @@
         <v>-2800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-327200</v>
+        <v>-337600</v>
       </c>
       <c r="E94" s="3">
-        <v>72900</v>
+        <v>75300</v>
       </c>
       <c r="F94" s="3">
-        <v>687200</v>
+        <v>709000</v>
       </c>
       <c r="G94" s="3">
-        <v>89300</v>
+        <v>92100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1334100</v>
+        <v>-1376400</v>
       </c>
       <c r="I94" s="3">
-        <v>-654300</v>
+        <v>-675100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>269000</v>
+        <v>277600</v>
       </c>
       <c r="E100" s="3">
-        <v>-190300</v>
+        <v>-196300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1071200</v>
+        <v>-1105300</v>
       </c>
       <c r="G100" s="3">
         <v>-400</v>
       </c>
       <c r="H100" s="3">
-        <v>1288500</v>
+        <v>1329500</v>
       </c>
       <c r="I100" s="3">
-        <v>597300</v>
+        <v>616300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3715,10 +3715,10 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="F101" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>-300</v>
       </c>
       <c r="I101" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>37700</v>
+        <v>38900</v>
       </c>
       <c r="E102" s="3">
-        <v>35600</v>
+        <v>36700</v>
       </c>
       <c r="F102" s="3">
-        <v>-202700</v>
+        <v>-209200</v>
       </c>
       <c r="G102" s="3">
-        <v>274400</v>
+        <v>283100</v>
       </c>
       <c r="H102" s="3">
-        <v>133200</v>
+        <v>137500</v>
       </c>
       <c r="I102" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,32 +714,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>200800</v>
+        <v>263700</v>
       </c>
       <c r="E8" s="3">
-        <v>292200</v>
+        <v>198700</v>
       </c>
       <c r="F8" s="3">
-        <v>445000</v>
+        <v>289200</v>
       </c>
       <c r="G8" s="3">
-        <v>614900</v>
+        <v>440500</v>
       </c>
       <c r="H8" s="3">
-        <v>491600</v>
+        <v>608600</v>
       </c>
       <c r="I8" s="3">
-        <v>193400</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>486600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>191400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -750,32 +753,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>172500</v>
+        <v>157200</v>
       </c>
       <c r="E9" s="3">
-        <v>164600</v>
+        <v>170800</v>
       </c>
       <c r="F9" s="3">
-        <v>213100</v>
+        <v>163000</v>
       </c>
       <c r="G9" s="3">
-        <v>279100</v>
+        <v>210900</v>
       </c>
       <c r="H9" s="3">
-        <v>202500</v>
+        <v>276200</v>
       </c>
       <c r="I9" s="3">
-        <v>63600</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>200400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>62900</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,32 +792,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>28300</v>
+        <v>106500</v>
       </c>
       <c r="E10" s="3">
-        <v>127500</v>
+        <v>28000</v>
       </c>
       <c r="F10" s="3">
-        <v>231900</v>
+        <v>126200</v>
       </c>
       <c r="G10" s="3">
-        <v>335800</v>
+        <v>229500</v>
       </c>
       <c r="H10" s="3">
-        <v>289100</v>
+        <v>332400</v>
       </c>
       <c r="I10" s="3">
-        <v>129800</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>286100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>128500</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,32 +851,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,32 +926,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G14" s="3">
         <v>3600</v>
       </c>
-      <c r="F14" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>8100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -946,33 +965,36 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3">
-        <v>1600</v>
-      </c>
       <c r="I15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J15" s="3">
         <v>900</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,31 +1021,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>187300</v>
+        <v>239100</v>
       </c>
       <c r="E17" s="3">
-        <v>268800</v>
+        <v>185400</v>
       </c>
       <c r="F17" s="3">
-        <v>341500</v>
+        <v>266100</v>
       </c>
       <c r="G17" s="3">
-        <v>448600</v>
+        <v>338000</v>
       </c>
       <c r="H17" s="3">
-        <v>375500</v>
+        <v>444000</v>
       </c>
       <c r="I17" s="3">
-        <v>152000</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>371600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>150500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,32 +1057,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13500</v>
+        <v>24500</v>
       </c>
       <c r="E18" s="3">
-        <v>23400</v>
+        <v>13300</v>
       </c>
       <c r="F18" s="3">
-        <v>103600</v>
+        <v>23100</v>
       </c>
       <c r="G18" s="3">
-        <v>166300</v>
+        <v>102500</v>
       </c>
       <c r="H18" s="3">
-        <v>116100</v>
+        <v>164600</v>
       </c>
       <c r="I18" s="3">
-        <v>41400</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>115000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>40900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1116,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1107,8 +1140,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1119,32 +1152,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14000</v>
+        <v>24900</v>
       </c>
       <c r="E21" s="3">
-        <v>24200</v>
+        <v>13900</v>
       </c>
       <c r="F21" s="3">
-        <v>105100</v>
+        <v>24000</v>
       </c>
       <c r="G21" s="3">
-        <v>168200</v>
+        <v>104100</v>
       </c>
       <c r="H21" s="3">
-        <v>117700</v>
+        <v>166500</v>
       </c>
       <c r="I21" s="3">
-        <v>42300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>116500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>41900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1155,9 +1191,12 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,32 +1230,35 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13500</v>
+        <v>24500</v>
       </c>
       <c r="E23" s="3">
-        <v>23400</v>
+        <v>13300</v>
       </c>
       <c r="F23" s="3">
-        <v>103600</v>
+        <v>23100</v>
       </c>
       <c r="G23" s="3">
-        <v>166300</v>
+        <v>102500</v>
       </c>
       <c r="H23" s="3">
-        <v>116100</v>
+        <v>164600</v>
       </c>
       <c r="I23" s="3">
-        <v>41400</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>115000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>40900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,32 +1269,35 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
-        <v>6900</v>
-      </c>
       <c r="F24" s="3">
-        <v>26800</v>
+        <v>6800</v>
       </c>
       <c r="G24" s="3">
-        <v>42600</v>
+        <v>26500</v>
       </c>
       <c r="H24" s="3">
-        <v>39600</v>
+        <v>42200</v>
       </c>
       <c r="I24" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>39200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7500</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,32 +1347,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9400</v>
+        <v>19200</v>
       </c>
       <c r="E26" s="3">
-        <v>16500</v>
+        <v>9300</v>
       </c>
       <c r="F26" s="3">
-        <v>76800</v>
+        <v>16300</v>
       </c>
       <c r="G26" s="3">
-        <v>123600</v>
+        <v>76000</v>
       </c>
       <c r="H26" s="3">
-        <v>76500</v>
+        <v>122400</v>
       </c>
       <c r="I26" s="3">
-        <v>33800</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>75700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>33500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,32 +1386,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9400</v>
+        <v>19200</v>
       </c>
       <c r="E27" s="3">
-        <v>16500</v>
+        <v>9300</v>
       </c>
       <c r="F27" s="3">
-        <v>76800</v>
+        <v>16300</v>
       </c>
       <c r="G27" s="3">
-        <v>123600</v>
+        <v>76000</v>
       </c>
       <c r="H27" s="3">
-        <v>76500</v>
+        <v>122400</v>
       </c>
       <c r="I27" s="3">
-        <v>33800</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>75700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>33500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,9 +1581,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1539,8 +1608,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1551,32 +1620,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9400</v>
+        <v>19200</v>
       </c>
       <c r="E33" s="3">
-        <v>16500</v>
+        <v>9300</v>
       </c>
       <c r="F33" s="3">
-        <v>76800</v>
+        <v>16300</v>
       </c>
       <c r="G33" s="3">
-        <v>123600</v>
+        <v>76000</v>
       </c>
       <c r="H33" s="3">
-        <v>76500</v>
+        <v>122400</v>
       </c>
       <c r="I33" s="3">
-        <v>33800</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>75700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>33500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1698,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9400</v>
+        <v>19200</v>
       </c>
       <c r="E35" s="3">
-        <v>16500</v>
+        <v>9300</v>
       </c>
       <c r="F35" s="3">
-        <v>76800</v>
+        <v>16300</v>
       </c>
       <c r="G35" s="3">
-        <v>123600</v>
+        <v>76000</v>
       </c>
       <c r="H35" s="3">
-        <v>76500</v>
+        <v>122400</v>
       </c>
       <c r="I35" s="3">
-        <v>33800</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>75700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>33500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,31 +1818,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>320500</v>
+        <v>251900</v>
       </c>
       <c r="E41" s="3">
-        <v>281600</v>
+        <v>317200</v>
       </c>
       <c r="F41" s="3">
-        <v>244900</v>
+        <v>278700</v>
       </c>
       <c r="G41" s="3">
-        <v>454100</v>
+        <v>242400</v>
       </c>
       <c r="H41" s="3">
-        <v>171000</v>
+        <v>449400</v>
       </c>
       <c r="I41" s="3">
-        <v>33500</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>169200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>33100</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1768,9 +1854,12 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,9 +1893,12 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1822,14 +1914,14 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>2300</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,9 +1971,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1894,15 +1992,15 @@
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,9 +2010,12 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1948,32 +2049,35 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1499400</v>
+        <v>1599200</v>
       </c>
       <c r="E47" s="3">
-        <v>1373200</v>
+        <v>1484000</v>
       </c>
       <c r="F47" s="3">
-        <v>1586400</v>
+        <v>1359200</v>
       </c>
       <c r="G47" s="3">
-        <v>2277600</v>
+        <v>1570200</v>
       </c>
       <c r="H47" s="3">
-        <v>2408700</v>
+        <v>2254300</v>
       </c>
       <c r="I47" s="3">
-        <v>1059300</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>2384100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1048500</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1984,33 +2088,36 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2800</v>
+        <v>4600</v>
       </c>
       <c r="E48" s="3">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="F48" s="3">
-        <v>6800</v>
+        <v>3400</v>
       </c>
       <c r="G48" s="3">
-        <v>2800</v>
+        <v>6700</v>
       </c>
       <c r="H48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,33 +2127,36 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
         <v>600</v>
-      </c>
-      <c r="E49" s="3">
-        <v>500</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
       </c>
       <c r="G49" s="3">
+        <v>500</v>
+      </c>
+      <c r="H49" s="3">
         <v>600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,32 +2244,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
-        <v>10900</v>
-      </c>
       <c r="F52" s="3">
-        <v>2400</v>
+        <v>10800</v>
       </c>
       <c r="G52" s="3">
-        <v>31300</v>
+        <v>2300</v>
       </c>
       <c r="H52" s="3">
-        <v>16200</v>
+        <v>30900</v>
       </c>
       <c r="I52" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>16000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,32 +2322,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2066100</v>
+        <v>2058600</v>
       </c>
       <c r="E54" s="3">
-        <v>1757000</v>
+        <v>2045000</v>
       </c>
       <c r="F54" s="3">
-        <v>1870800</v>
+        <v>1739000</v>
       </c>
       <c r="G54" s="3">
-        <v>2779700</v>
+        <v>1851700</v>
       </c>
       <c r="H54" s="3">
-        <v>2616200</v>
+        <v>2751300</v>
       </c>
       <c r="I54" s="3">
-        <v>1121100</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>2589400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1109700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,8 +2398,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2304,68 +2434,74 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="E58" s="3">
-        <v>73000</v>
+        <v>6400</v>
       </c>
       <c r="F58" s="3">
-        <v>125100</v>
+        <v>72300</v>
       </c>
       <c r="G58" s="3">
-        <v>605200</v>
+        <v>123800</v>
       </c>
       <c r="H58" s="3">
-        <v>504400</v>
+        <v>599000</v>
       </c>
       <c r="I58" s="3">
-        <v>20300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>499200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>20100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28000</v>
+        <v>35100</v>
       </c>
       <c r="E59" s="3">
-        <v>29300</v>
+        <v>27700</v>
       </c>
       <c r="F59" s="3">
-        <v>30500</v>
+        <v>29000</v>
       </c>
       <c r="G59" s="3">
-        <v>105100</v>
+        <v>30200</v>
       </c>
       <c r="H59" s="3">
-        <v>64900</v>
+        <v>104000</v>
       </c>
       <c r="I59" s="3">
-        <v>21200</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>64300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>21000</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2376,9 +2512,12 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2412,32 +2551,35 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1155000</v>
+        <v>1098500</v>
       </c>
       <c r="E61" s="3">
-        <v>811400</v>
+        <v>1143200</v>
       </c>
       <c r="F61" s="3">
-        <v>955400</v>
+        <v>803100</v>
       </c>
       <c r="G61" s="3">
-        <v>1595700</v>
+        <v>945600</v>
       </c>
       <c r="H61" s="3">
-        <v>1751600</v>
+        <v>1579400</v>
       </c>
       <c r="I61" s="3">
-        <v>888100</v>
+        <v>1733600</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>879000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2448,33 +2590,36 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21800</v>
+        <v>10500</v>
       </c>
       <c r="E62" s="3">
-        <v>57000</v>
+        <v>21600</v>
       </c>
       <c r="F62" s="3">
-        <v>51600</v>
+        <v>56400</v>
       </c>
       <c r="G62" s="3">
+        <v>51100</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1517800</v>
+        <v>1506200</v>
       </c>
       <c r="E66" s="3">
-        <v>1219700</v>
+        <v>1502200</v>
       </c>
       <c r="F66" s="3">
-        <v>1354000</v>
+        <v>1207200</v>
       </c>
       <c r="G66" s="3">
-        <v>2342300</v>
+        <v>1340100</v>
       </c>
       <c r="H66" s="3">
-        <v>2353200</v>
+        <v>2318300</v>
       </c>
       <c r="I66" s="3">
-        <v>960500</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>2329100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>950700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,32 +2958,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>405600</v>
+        <v>420600</v>
       </c>
       <c r="E72" s="3">
-        <v>396300</v>
+        <v>401500</v>
       </c>
       <c r="F72" s="3">
-        <v>382300</v>
+        <v>392200</v>
       </c>
       <c r="G72" s="3">
-        <v>305600</v>
+        <v>378400</v>
       </c>
       <c r="H72" s="3">
-        <v>181900</v>
+        <v>302400</v>
       </c>
       <c r="I72" s="3">
-        <v>105400</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>180000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>104300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,32 +3114,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>548400</v>
+        <v>552400</v>
       </c>
       <c r="E76" s="3">
-        <v>537300</v>
+        <v>542800</v>
       </c>
       <c r="F76" s="3">
-        <v>516800</v>
+        <v>531800</v>
       </c>
       <c r="G76" s="3">
-        <v>437400</v>
+        <v>511500</v>
       </c>
       <c r="H76" s="3">
-        <v>263000</v>
+        <v>432900</v>
       </c>
       <c r="I76" s="3">
-        <v>160700</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>260300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>159000</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,32 +3236,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9400</v>
+        <v>19200</v>
       </c>
       <c r="E81" s="3">
-        <v>16500</v>
+        <v>9300</v>
       </c>
       <c r="F81" s="3">
-        <v>76800</v>
+        <v>16300</v>
       </c>
       <c r="G81" s="3">
-        <v>123600</v>
+        <v>76000</v>
       </c>
       <c r="H81" s="3">
-        <v>76500</v>
+        <v>122400</v>
       </c>
       <c r="I81" s="3">
-        <v>33800</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>75700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>33500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,32 +3295,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
-        <v>1600</v>
-      </c>
       <c r="I83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,32 +3526,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>99100</v>
+        <v>130700</v>
       </c>
       <c r="E89" s="3">
-        <v>160800</v>
+        <v>98000</v>
       </c>
       <c r="F89" s="3">
-        <v>186600</v>
+        <v>159100</v>
       </c>
       <c r="G89" s="3">
-        <v>191400</v>
+        <v>184700</v>
       </c>
       <c r="H89" s="3">
-        <v>184800</v>
+        <v>189400</v>
       </c>
       <c r="I89" s="3">
-        <v>54600</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>182900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>54000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,32 +3585,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-12800</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>
       </c>
       <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,32 +3699,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-337600</v>
+        <v>-156100</v>
       </c>
       <c r="E94" s="3">
-        <v>75300</v>
+        <v>-334100</v>
       </c>
       <c r="F94" s="3">
-        <v>709000</v>
+        <v>74500</v>
       </c>
       <c r="G94" s="3">
-        <v>92100</v>
+        <v>701700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1376400</v>
+        <v>91200</v>
       </c>
       <c r="I94" s="3">
-        <v>-675100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-1362400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-668200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,32 +3911,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>277600</v>
+        <v>-41000</v>
       </c>
       <c r="E100" s="3">
-        <v>-196300</v>
+        <v>274700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1105300</v>
+        <v>-194300</v>
       </c>
       <c r="G100" s="3">
+        <v>-1093900</v>
+      </c>
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
-        <v>1329500</v>
-      </c>
       <c r="I100" s="3">
-        <v>616300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>1315800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>610000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3705,33 +3950,36 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
-        <v>600</v>
-      </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,32 +3989,35 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38900</v>
+        <v>-65300</v>
       </c>
       <c r="E102" s="3">
-        <v>36700</v>
+        <v>38500</v>
       </c>
       <c r="F102" s="3">
-        <v>-209200</v>
+        <v>36300</v>
       </c>
       <c r="G102" s="3">
-        <v>283100</v>
+        <v>-207000</v>
       </c>
       <c r="H102" s="3">
-        <v>137500</v>
+        <v>280200</v>
       </c>
       <c r="I102" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>136100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-3800</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>263700</v>
+        <v>255600</v>
       </c>
       <c r="E8" s="3">
-        <v>198700</v>
+        <v>192600</v>
       </c>
       <c r="F8" s="3">
-        <v>289200</v>
+        <v>280300</v>
       </c>
       <c r="G8" s="3">
-        <v>440500</v>
+        <v>426900</v>
       </c>
       <c r="H8" s="3">
-        <v>608600</v>
+        <v>589900</v>
       </c>
       <c r="I8" s="3">
-        <v>486600</v>
+        <v>471600</v>
       </c>
       <c r="J8" s="3">
-        <v>191400</v>
+        <v>185500</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>157200</v>
+        <v>152300</v>
       </c>
       <c r="E9" s="3">
-        <v>170800</v>
+        <v>165500</v>
       </c>
       <c r="F9" s="3">
-        <v>163000</v>
+        <v>158000</v>
       </c>
       <c r="G9" s="3">
-        <v>210900</v>
+        <v>204400</v>
       </c>
       <c r="H9" s="3">
-        <v>276200</v>
+        <v>267700</v>
       </c>
       <c r="I9" s="3">
-        <v>200400</v>
+        <v>194300</v>
       </c>
       <c r="J9" s="3">
-        <v>62900</v>
+        <v>61000</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>106500</v>
+        <v>103200</v>
       </c>
       <c r="E10" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="F10" s="3">
-        <v>126200</v>
+        <v>122300</v>
       </c>
       <c r="G10" s="3">
-        <v>229500</v>
+        <v>222500</v>
       </c>
       <c r="H10" s="3">
-        <v>332400</v>
+        <v>322200</v>
       </c>
       <c r="I10" s="3">
-        <v>286100</v>
+        <v>277400</v>
       </c>
       <c r="J10" s="3">
-        <v>128500</v>
+        <v>124600</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -942,11 +942,11 @@
         <v>1700</v>
       </c>
       <c r="F14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G14" s="3">
         <v>3500</v>
       </c>
-      <c r="G14" s="3">
-        <v>3600</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -981,13 +981,13 @@
         <v>500</v>
       </c>
       <c r="F15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G15" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I15" s="3">
         <v>1500</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>239100</v>
+        <v>231800</v>
       </c>
       <c r="E17" s="3">
-        <v>185400</v>
+        <v>179700</v>
       </c>
       <c r="F17" s="3">
-        <v>266100</v>
+        <v>257900</v>
       </c>
       <c r="G17" s="3">
-        <v>338000</v>
+        <v>327600</v>
       </c>
       <c r="H17" s="3">
-        <v>444000</v>
+        <v>430400</v>
       </c>
       <c r="I17" s="3">
-        <v>371600</v>
+        <v>360200</v>
       </c>
       <c r="J17" s="3">
-        <v>150500</v>
+        <v>145900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24500</v>
+        <v>23800</v>
       </c>
       <c r="E18" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="F18" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="G18" s="3">
-        <v>102500</v>
+        <v>99300</v>
       </c>
       <c r="H18" s="3">
-        <v>164600</v>
+        <v>159500</v>
       </c>
       <c r="I18" s="3">
-        <v>115000</v>
+        <v>111400</v>
       </c>
       <c r="J18" s="3">
-        <v>40900</v>
+        <v>39700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>24900</v>
+        <v>24100</v>
       </c>
       <c r="E21" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="F21" s="3">
-        <v>24000</v>
+        <v>23300</v>
       </c>
       <c r="G21" s="3">
-        <v>104100</v>
+        <v>100800</v>
       </c>
       <c r="H21" s="3">
-        <v>166500</v>
+        <v>161300</v>
       </c>
       <c r="I21" s="3">
-        <v>116500</v>
+        <v>112900</v>
       </c>
       <c r="J21" s="3">
-        <v>41900</v>
+        <v>40600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24500</v>
+        <v>23800</v>
       </c>
       <c r="E23" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="F23" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="G23" s="3">
-        <v>102500</v>
+        <v>99300</v>
       </c>
       <c r="H23" s="3">
-        <v>164600</v>
+        <v>159500</v>
       </c>
       <c r="I23" s="3">
-        <v>115000</v>
+        <v>111400</v>
       </c>
       <c r="J23" s="3">
-        <v>40900</v>
+        <v>39700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="E24" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F24" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="G24" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="H24" s="3">
-        <v>42200</v>
+        <v>40900</v>
       </c>
       <c r="I24" s="3">
-        <v>39200</v>
+        <v>38000</v>
       </c>
       <c r="J24" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="E26" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="F26" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="G26" s="3">
-        <v>76000</v>
+        <v>73700</v>
       </c>
       <c r="H26" s="3">
-        <v>122400</v>
+        <v>118600</v>
       </c>
       <c r="I26" s="3">
-        <v>75700</v>
+        <v>73400</v>
       </c>
       <c r="J26" s="3">
-        <v>33500</v>
+        <v>32400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="E27" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="F27" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="G27" s="3">
-        <v>76000</v>
+        <v>73700</v>
       </c>
       <c r="H27" s="3">
-        <v>122400</v>
+        <v>118600</v>
       </c>
       <c r="I27" s="3">
-        <v>75700</v>
+        <v>73400</v>
       </c>
       <c r="J27" s="3">
-        <v>33500</v>
+        <v>32400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="E33" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="F33" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="G33" s="3">
-        <v>76000</v>
+        <v>73700</v>
       </c>
       <c r="H33" s="3">
-        <v>122400</v>
+        <v>118600</v>
       </c>
       <c r="I33" s="3">
-        <v>75700</v>
+        <v>73400</v>
       </c>
       <c r="J33" s="3">
-        <v>33500</v>
+        <v>32400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="E35" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="F35" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="G35" s="3">
-        <v>76000</v>
+        <v>73700</v>
       </c>
       <c r="H35" s="3">
-        <v>122400</v>
+        <v>118600</v>
       </c>
       <c r="I35" s="3">
-        <v>75700</v>
+        <v>73400</v>
       </c>
       <c r="J35" s="3">
-        <v>33500</v>
+        <v>32400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>251900</v>
+        <v>244200</v>
       </c>
       <c r="E41" s="3">
-        <v>317200</v>
+        <v>307400</v>
       </c>
       <c r="F41" s="3">
-        <v>278700</v>
+        <v>270200</v>
       </c>
       <c r="G41" s="3">
-        <v>242400</v>
+        <v>235000</v>
       </c>
       <c r="H41" s="3">
-        <v>449400</v>
+        <v>435600</v>
       </c>
       <c r="I41" s="3">
-        <v>169200</v>
+        <v>164000</v>
       </c>
       <c r="J41" s="3">
-        <v>33100</v>
+        <v>32100</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1996,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="I45" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J45" s="3">
         <v>700</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1599200</v>
+        <v>1550000</v>
       </c>
       <c r="E47" s="3">
-        <v>1484000</v>
+        <v>1438400</v>
       </c>
       <c r="F47" s="3">
-        <v>1359200</v>
+        <v>1317400</v>
       </c>
       <c r="G47" s="3">
-        <v>1570200</v>
+        <v>1521900</v>
       </c>
       <c r="H47" s="3">
-        <v>2254300</v>
+        <v>2185000</v>
       </c>
       <c r="I47" s="3">
-        <v>2384100</v>
+        <v>2310800</v>
       </c>
       <c r="J47" s="3">
-        <v>1048500</v>
+        <v>1016300</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="E48" s="3">
         <v>2700</v>
       </c>
       <c r="F48" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G48" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="H48" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I48" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J48" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2143,7 +2143,7 @@
         <v>600</v>
       </c>
       <c r="F49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="E52" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F52" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="G52" s="3">
         <v>2300</v>
       </c>
       <c r="H52" s="3">
-        <v>30900</v>
+        <v>30000</v>
       </c>
       <c r="I52" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="J52" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2058600</v>
+        <v>1995300</v>
       </c>
       <c r="E54" s="3">
-        <v>2045000</v>
+        <v>1982100</v>
       </c>
       <c r="F54" s="3">
-        <v>1739000</v>
+        <v>1685500</v>
       </c>
       <c r="G54" s="3">
-        <v>1851700</v>
+        <v>1794800</v>
       </c>
       <c r="H54" s="3">
-        <v>2751300</v>
+        <v>2666700</v>
       </c>
       <c r="I54" s="3">
-        <v>2589400</v>
+        <v>2509800</v>
       </c>
       <c r="J54" s="3">
-        <v>1109700</v>
+        <v>1075600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="E58" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="F58" s="3">
-        <v>72300</v>
+        <v>70100</v>
       </c>
       <c r="G58" s="3">
-        <v>123800</v>
+        <v>120000</v>
       </c>
       <c r="H58" s="3">
-        <v>599000</v>
+        <v>580600</v>
       </c>
       <c r="I58" s="3">
-        <v>499200</v>
+        <v>483900</v>
       </c>
       <c r="J58" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35100</v>
+        <v>34000</v>
       </c>
       <c r="E59" s="3">
-        <v>27700</v>
+        <v>26800</v>
       </c>
       <c r="F59" s="3">
-        <v>29000</v>
+        <v>28100</v>
       </c>
       <c r="G59" s="3">
-        <v>30200</v>
+        <v>29300</v>
       </c>
       <c r="H59" s="3">
-        <v>104000</v>
+        <v>100800</v>
       </c>
       <c r="I59" s="3">
-        <v>64300</v>
+        <v>62300</v>
       </c>
       <c r="J59" s="3">
-        <v>21000</v>
+        <v>20400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1098500</v>
+        <v>1064700</v>
       </c>
       <c r="E61" s="3">
-        <v>1143200</v>
+        <v>1108000</v>
       </c>
       <c r="F61" s="3">
-        <v>803100</v>
+        <v>778400</v>
       </c>
       <c r="G61" s="3">
-        <v>945600</v>
+        <v>916500</v>
       </c>
       <c r="H61" s="3">
-        <v>1579400</v>
+        <v>1530900</v>
       </c>
       <c r="I61" s="3">
-        <v>1733600</v>
+        <v>1680300</v>
       </c>
       <c r="J61" s="3">
-        <v>879000</v>
+        <v>852000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="E62" s="3">
-        <v>21600</v>
+        <v>20900</v>
       </c>
       <c r="F62" s="3">
-        <v>56400</v>
+        <v>54600</v>
       </c>
       <c r="G62" s="3">
-        <v>51100</v>
+        <v>49500</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1506200</v>
+        <v>1459900</v>
       </c>
       <c r="E66" s="3">
-        <v>1502200</v>
+        <v>1456000</v>
       </c>
       <c r="F66" s="3">
-        <v>1207200</v>
+        <v>1170100</v>
       </c>
       <c r="G66" s="3">
-        <v>1340100</v>
+        <v>1299000</v>
       </c>
       <c r="H66" s="3">
-        <v>2318300</v>
+        <v>2247100</v>
       </c>
       <c r="I66" s="3">
-        <v>2329100</v>
+        <v>2257500</v>
       </c>
       <c r="J66" s="3">
-        <v>950700</v>
+        <v>921400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>420600</v>
+        <v>407700</v>
       </c>
       <c r="E72" s="3">
-        <v>401500</v>
+        <v>389100</v>
       </c>
       <c r="F72" s="3">
-        <v>392200</v>
+        <v>380200</v>
       </c>
       <c r="G72" s="3">
-        <v>378400</v>
+        <v>366800</v>
       </c>
       <c r="H72" s="3">
-        <v>302400</v>
+        <v>293100</v>
       </c>
       <c r="I72" s="3">
-        <v>180000</v>
+        <v>174500</v>
       </c>
       <c r="J72" s="3">
-        <v>104300</v>
+        <v>101100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>552400</v>
+        <v>535400</v>
       </c>
       <c r="E76" s="3">
-        <v>542800</v>
+        <v>526100</v>
       </c>
       <c r="F76" s="3">
-        <v>531800</v>
+        <v>515500</v>
       </c>
       <c r="G76" s="3">
-        <v>511500</v>
+        <v>495800</v>
       </c>
       <c r="H76" s="3">
-        <v>432900</v>
+        <v>419600</v>
       </c>
       <c r="I76" s="3">
-        <v>260300</v>
+        <v>252300</v>
       </c>
       <c r="J76" s="3">
-        <v>159000</v>
+        <v>154100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="E81" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="F81" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="G81" s="3">
-        <v>76000</v>
+        <v>73700</v>
       </c>
       <c r="H81" s="3">
-        <v>122400</v>
+        <v>118600</v>
       </c>
       <c r="I81" s="3">
-        <v>75700</v>
+        <v>73400</v>
       </c>
       <c r="J81" s="3">
-        <v>33500</v>
+        <v>32400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3308,13 +3308,13 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G83" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H83" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I83" s="3">
         <v>1500</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>130700</v>
+        <v>126700</v>
       </c>
       <c r="E89" s="3">
-        <v>98000</v>
+        <v>95000</v>
       </c>
       <c r="F89" s="3">
-        <v>159100</v>
+        <v>154300</v>
       </c>
       <c r="G89" s="3">
-        <v>184700</v>
+        <v>179000</v>
       </c>
       <c r="H89" s="3">
-        <v>189400</v>
+        <v>183600</v>
       </c>
       <c r="I89" s="3">
-        <v>182900</v>
+        <v>177300</v>
       </c>
       <c r="J89" s="3">
-        <v>54000</v>
+        <v>52300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12800</v>
+        <v>-12400</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>
       </c>
       <c r="F91" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G91" s="3">
         <v>-600</v>
       </c>
       <c r="H91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-156100</v>
+        <v>-151300</v>
       </c>
       <c r="E94" s="3">
-        <v>-334100</v>
+        <v>-323900</v>
       </c>
       <c r="F94" s="3">
-        <v>74500</v>
+        <v>72200</v>
       </c>
       <c r="G94" s="3">
-        <v>701700</v>
+        <v>680100</v>
       </c>
       <c r="H94" s="3">
-        <v>91200</v>
+        <v>88400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1362400</v>
+        <v>-1320500</v>
       </c>
       <c r="J94" s="3">
-        <v>-668200</v>
+        <v>-647600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-41000</v>
+        <v>-39700</v>
       </c>
       <c r="E100" s="3">
-        <v>274700</v>
+        <v>266300</v>
       </c>
       <c r="F100" s="3">
-        <v>-194300</v>
+        <v>-188400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1093900</v>
+        <v>-1060300</v>
       </c>
       <c r="H100" s="3">
         <v>-400</v>
       </c>
       <c r="I100" s="3">
-        <v>1315800</v>
+        <v>1275400</v>
       </c>
       <c r="J100" s="3">
-        <v>610000</v>
+        <v>591200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3966,7 +3966,7 @@
         <v>-200</v>
       </c>
       <c r="F101" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="G101" s="3">
         <v>500</v>
@@ -3978,7 +3978,7 @@
         <v>-300</v>
       </c>
       <c r="J101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-65300</v>
+        <v>-63300</v>
       </c>
       <c r="E102" s="3">
-        <v>38500</v>
+        <v>37300</v>
       </c>
       <c r="F102" s="3">
-        <v>36300</v>
+        <v>35200</v>
       </c>
       <c r="G102" s="3">
-        <v>-207000</v>
+        <v>-200600</v>
       </c>
       <c r="H102" s="3">
-        <v>280200</v>
+        <v>271600</v>
       </c>
       <c r="I102" s="3">
-        <v>136100</v>
+        <v>131900</v>
       </c>
       <c r="J102" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNF_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>255600</v>
+        <v>1854900</v>
       </c>
       <c r="E8" s="3">
-        <v>192600</v>
+        <v>1398100</v>
       </c>
       <c r="F8" s="3">
-        <v>280300</v>
+        <v>2034400</v>
       </c>
       <c r="G8" s="3">
-        <v>426900</v>
+        <v>3098600</v>
       </c>
       <c r="H8" s="3">
-        <v>589900</v>
+        <v>4281300</v>
       </c>
       <c r="I8" s="3">
-        <v>471600</v>
+        <v>3422900</v>
       </c>
       <c r="J8" s="3">
-        <v>185500</v>
+        <v>1346700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>152300</v>
+        <v>1105600</v>
       </c>
       <c r="E9" s="3">
-        <v>165500</v>
+        <v>1201300</v>
       </c>
       <c r="F9" s="3">
-        <v>158000</v>
+        <v>1146400</v>
       </c>
       <c r="G9" s="3">
-        <v>204400</v>
+        <v>1483900</v>
       </c>
       <c r="H9" s="3">
-        <v>267700</v>
+        <v>1943100</v>
       </c>
       <c r="I9" s="3">
-        <v>194300</v>
+        <v>1409900</v>
       </c>
       <c r="J9" s="3">
-        <v>61000</v>
+        <v>442700</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>103200</v>
+        <v>749300</v>
       </c>
       <c r="E10" s="3">
-        <v>27100</v>
+        <v>196800</v>
       </c>
       <c r="F10" s="3">
-        <v>122300</v>
+        <v>888000</v>
       </c>
       <c r="G10" s="3">
-        <v>222500</v>
+        <v>1614700</v>
       </c>
       <c r="H10" s="3">
-        <v>322200</v>
+        <v>2338200</v>
       </c>
       <c r="I10" s="3">
-        <v>277400</v>
+        <v>2013000</v>
       </c>
       <c r="J10" s="3">
-        <v>124600</v>
+        <v>904000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="F12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
-        <v>300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200</v>
-      </c>
       <c r="I12" s="3">
-        <v>700</v>
+        <v>4800</v>
       </c>
       <c r="J12" s="3">
-        <v>1200</v>
+        <v>8500</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -939,13 +939,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>1700</v>
+        <v>12000</v>
       </c>
       <c r="F14" s="3">
-        <v>3400</v>
+        <v>24800</v>
       </c>
       <c r="G14" s="3">
-        <v>3500</v>
+        <v>25300</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>7800</v>
+        <v>57000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>3800</v>
       </c>
       <c r="F15" s="3">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="3">
-        <v>1500</v>
+        <v>10900</v>
       </c>
       <c r="H15" s="3">
-        <v>1800</v>
+        <v>13300</v>
       </c>
       <c r="I15" s="3">
-        <v>1500</v>
+        <v>10800</v>
       </c>
       <c r="J15" s="3">
-        <v>900</v>
+        <v>6600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>231800</v>
+        <v>1682300</v>
       </c>
       <c r="E17" s="3">
-        <v>179700</v>
+        <v>1304400</v>
       </c>
       <c r="F17" s="3">
-        <v>257900</v>
+        <v>1871700</v>
       </c>
       <c r="G17" s="3">
-        <v>327600</v>
+        <v>2377600</v>
       </c>
       <c r="H17" s="3">
-        <v>430400</v>
+        <v>3123500</v>
       </c>
       <c r="I17" s="3">
-        <v>360200</v>
+        <v>2614200</v>
       </c>
       <c r="J17" s="3">
-        <v>145900</v>
+        <v>1058600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23800</v>
+        <v>172600</v>
       </c>
       <c r="E18" s="3">
-        <v>12900</v>
+        <v>93800</v>
       </c>
       <c r="F18" s="3">
-        <v>22400</v>
+        <v>162700</v>
       </c>
       <c r="G18" s="3">
-        <v>99300</v>
+        <v>721000</v>
       </c>
       <c r="H18" s="3">
-        <v>159500</v>
+        <v>1157700</v>
       </c>
       <c r="I18" s="3">
-        <v>111400</v>
+        <v>808700</v>
       </c>
       <c r="J18" s="3">
-        <v>39700</v>
+        <v>288000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>24100</v>
+        <v>174800</v>
       </c>
       <c r="E21" s="3">
-        <v>13400</v>
+        <v>97600</v>
       </c>
       <c r="F21" s="3">
-        <v>23300</v>
+        <v>168700</v>
       </c>
       <c r="G21" s="3">
-        <v>100800</v>
+        <v>731900</v>
       </c>
       <c r="H21" s="3">
-        <v>161300</v>
+        <v>1171000</v>
       </c>
       <c r="I21" s="3">
-        <v>112900</v>
+        <v>819500</v>
       </c>
       <c r="J21" s="3">
-        <v>40600</v>
+        <v>294600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23800</v>
+        <v>172600</v>
       </c>
       <c r="E23" s="3">
-        <v>12900</v>
+        <v>93800</v>
       </c>
       <c r="F23" s="3">
-        <v>22400</v>
+        <v>162700</v>
       </c>
       <c r="G23" s="3">
-        <v>99300</v>
+        <v>721000</v>
       </c>
       <c r="H23" s="3">
-        <v>159500</v>
+        <v>1157700</v>
       </c>
       <c r="I23" s="3">
-        <v>111400</v>
+        <v>808700</v>
       </c>
       <c r="J23" s="3">
-        <v>39700</v>
+        <v>288000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5100</v>
+        <v>37200</v>
       </c>
       <c r="E24" s="3">
-        <v>3900</v>
+        <v>28600</v>
       </c>
       <c r="F24" s="3">
-        <v>6600</v>
+        <v>47800</v>
       </c>
       <c r="G24" s="3">
-        <v>25700</v>
+        <v>186400</v>
       </c>
       <c r="H24" s="3">
-        <v>40900</v>
+        <v>296800</v>
       </c>
       <c r="I24" s="3">
-        <v>38000</v>
+        <v>276000</v>
       </c>
       <c r="J24" s="3">
-        <v>7200</v>
+        <v>52600</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18600</v>
+        <v>135400</v>
       </c>
       <c r="E26" s="3">
-        <v>9000</v>
+        <v>65200</v>
       </c>
       <c r="F26" s="3">
-        <v>15800</v>
+        <v>114900</v>
       </c>
       <c r="G26" s="3">
-        <v>73700</v>
+        <v>534600</v>
       </c>
       <c r="H26" s="3">
-        <v>118600</v>
+        <v>860900</v>
       </c>
       <c r="I26" s="3">
-        <v>73400</v>
+        <v>532700</v>
       </c>
       <c r="J26" s="3">
-        <v>32400</v>
+        <v>235400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18600</v>
+        <v>135400</v>
       </c>
       <c r="E27" s="3">
-        <v>9000</v>
+        <v>65200</v>
       </c>
       <c r="F27" s="3">
-        <v>15800</v>
+        <v>114900</v>
       </c>
       <c r="G27" s="3">
-        <v>73700</v>
+        <v>534600</v>
       </c>
       <c r="H27" s="3">
-        <v>118600</v>
+        <v>860900</v>
       </c>
       <c r="I27" s="3">
-        <v>73400</v>
+        <v>532700</v>
       </c>
       <c r="J27" s="3">
-        <v>32400</v>
+        <v>235400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18600</v>
+        <v>135400</v>
       </c>
       <c r="E33" s="3">
-        <v>9000</v>
+        <v>65200</v>
       </c>
       <c r="F33" s="3">
-        <v>15800</v>
+        <v>114900</v>
       </c>
       <c r="G33" s="3">
-        <v>73700</v>
+        <v>534600</v>
       </c>
       <c r="H33" s="3">
-        <v>118600</v>
+        <v>860900</v>
       </c>
       <c r="I33" s="3">
-        <v>73400</v>
+        <v>532700</v>
       </c>
       <c r="J33" s="3">
-        <v>32400</v>
+        <v>235400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18600</v>
+        <v>135400</v>
       </c>
       <c r="E35" s="3">
-        <v>9000</v>
+        <v>65200</v>
       </c>
       <c r="F35" s="3">
-        <v>15800</v>
+        <v>114900</v>
       </c>
       <c r="G35" s="3">
-        <v>73700</v>
+        <v>534600</v>
       </c>
       <c r="H35" s="3">
-        <v>118600</v>
+        <v>860900</v>
       </c>
       <c r="I35" s="3">
-        <v>73400</v>
+        <v>532700</v>
       </c>
       <c r="J35" s="3">
-        <v>32400</v>
+        <v>235400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>244200</v>
+        <v>1772200</v>
       </c>
       <c r="E41" s="3">
-        <v>307400</v>
+        <v>2231400</v>
       </c>
       <c r="F41" s="3">
-        <v>270200</v>
+        <v>1960900</v>
       </c>
       <c r="G41" s="3">
-        <v>235000</v>
+        <v>1705400</v>
       </c>
       <c r="H41" s="3">
-        <v>435600</v>
+        <v>3161700</v>
       </c>
       <c r="I41" s="3">
-        <v>164000</v>
+        <v>1190400</v>
       </c>
       <c r="J41" s="3">
-        <v>32100</v>
+        <v>233100</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1918,10 +1918,10 @@
         <v>3</v>
       </c>
       <c r="I43" s="3">
-        <v>1100</v>
+        <v>7900</v>
       </c>
       <c r="J43" s="3">
-        <v>2300</v>
+        <v>16500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1996,10 +1996,10 @@
         <v>3</v>
       </c>
       <c r="I45" s="3">
-        <v>1800</v>
+        <v>13100</v>
       </c>
       <c r="J45" s="3">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1550000</v>
+        <v>11250000</v>
       </c>
       <c r="E47" s="3">
-        <v>1438400</v>
+        <v>10439900</v>
       </c>
       <c r="F47" s="3">
-        <v>1317400</v>
+        <v>9561700</v>
       </c>
       <c r="G47" s="3">
-        <v>1521900</v>
+        <v>11045900</v>
       </c>
       <c r="H47" s="3">
-        <v>2185000</v>
+        <v>15858800</v>
       </c>
       <c r="I47" s="3">
-        <v>2310800</v>
+        <v>16771700</v>
       </c>
       <c r="J47" s="3">
-        <v>1016300</v>
+        <v>7375900</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4400</v>
+        <v>32100</v>
       </c>
       <c r="E48" s="3">
-        <v>2700</v>
+        <v>19200</v>
       </c>
       <c r="F48" s="3">
-        <v>3300</v>
+        <v>24200</v>
       </c>
       <c r="G48" s="3">
-        <v>6500</v>
+        <v>47300</v>
       </c>
       <c r="H48" s="3">
-        <v>2600</v>
+        <v>19200</v>
       </c>
       <c r="I48" s="3">
-        <v>3100</v>
+        <v>22500</v>
       </c>
       <c r="J48" s="3">
-        <v>2600</v>
+        <v>18700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="E49" s="3">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>3200</v>
       </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>3700</v>
       </c>
       <c r="H49" s="3">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>3300</v>
       </c>
       <c r="J49" s="3">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10600</v>
+        <v>76900</v>
       </c>
       <c r="E52" s="3">
-        <v>2900</v>
+        <v>21100</v>
       </c>
       <c r="F52" s="3">
-        <v>10400</v>
+        <v>75800</v>
       </c>
       <c r="G52" s="3">
-        <v>2300</v>
+        <v>16400</v>
       </c>
       <c r="H52" s="3">
-        <v>30000</v>
+        <v>217600</v>
       </c>
       <c r="I52" s="3">
-        <v>15500</v>
+        <v>112500</v>
       </c>
       <c r="J52" s="3">
-        <v>7700</v>
+        <v>55600</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1995300</v>
+        <v>14481900</v>
       </c>
       <c r="E54" s="3">
-        <v>1982100</v>
+        <v>14386200</v>
       </c>
       <c r="F54" s="3">
-        <v>1685500</v>
+        <v>12233500</v>
       </c>
       <c r="G54" s="3">
-        <v>1794800</v>
+        <v>13026200</v>
       </c>
       <c r="H54" s="3">
-        <v>2666700</v>
+        <v>19354700</v>
       </c>
       <c r="I54" s="3">
-        <v>2509800</v>
+        <v>18215900</v>
       </c>
       <c r="J54" s="3">
-        <v>1075600</v>
+        <v>7806400</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15500</v>
+        <v>112600</v>
       </c>
       <c r="E58" s="3">
-        <v>6200</v>
+        <v>45300</v>
       </c>
       <c r="F58" s="3">
-        <v>70100</v>
+        <v>508600</v>
       </c>
       <c r="G58" s="3">
-        <v>120000</v>
+        <v>870800</v>
       </c>
       <c r="H58" s="3">
-        <v>580600</v>
+        <v>4213900</v>
       </c>
       <c r="I58" s="3">
-        <v>483900</v>
+        <v>3512100</v>
       </c>
       <c r="J58" s="3">
-        <v>19500</v>
+        <v>141700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34000</v>
+        <v>247100</v>
       </c>
       <c r="E59" s="3">
-        <v>26800</v>
+        <v>194700</v>
       </c>
       <c r="F59" s="3">
-        <v>28100</v>
+        <v>204000</v>
       </c>
       <c r="G59" s="3">
-        <v>29300</v>
+        <v>212300</v>
       </c>
       <c r="H59" s="3">
-        <v>100800</v>
+        <v>731600</v>
       </c>
       <c r="I59" s="3">
-        <v>62300</v>
+        <v>452200</v>
       </c>
       <c r="J59" s="3">
-        <v>20400</v>
+        <v>147800</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1064700</v>
+        <v>7727600</v>
       </c>
       <c r="E61" s="3">
-        <v>1108000</v>
+        <v>8041900</v>
       </c>
       <c r="F61" s="3">
-        <v>778400</v>
+        <v>5649700</v>
       </c>
       <c r="G61" s="3">
-        <v>916500</v>
+        <v>6652100</v>
       </c>
       <c r="H61" s="3">
-        <v>1530900</v>
+        <v>11110900</v>
       </c>
       <c r="I61" s="3">
-        <v>1680300</v>
+        <v>12195800</v>
       </c>
       <c r="J61" s="3">
-        <v>852000</v>
+        <v>6183800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10200</v>
+        <v>73800</v>
       </c>
       <c r="E62" s="3">
-        <v>20900</v>
+        <v>151800</v>
       </c>
       <c r="F62" s="3">
-        <v>54600</v>
+        <v>396600</v>
       </c>
       <c r="G62" s="3">
-        <v>49500</v>
+        <v>359300</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1459900</v>
+        <v>10595900</v>
       </c>
       <c r="E66" s="3">
-        <v>1456000</v>
+        <v>10567900</v>
       </c>
       <c r="F66" s="3">
-        <v>1170100</v>
+        <v>8492200</v>
       </c>
       <c r="G66" s="3">
-        <v>1299000</v>
+        <v>9427700</v>
       </c>
       <c r="H66" s="3">
-        <v>2247100</v>
+        <v>16309200</v>
       </c>
       <c r="I66" s="3">
-        <v>2257500</v>
+        <v>16384600</v>
       </c>
       <c r="J66" s="3">
-        <v>921400</v>
+        <v>6687700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>407700</v>
+        <v>2958700</v>
       </c>
       <c r="E72" s="3">
-        <v>389100</v>
+        <v>2824300</v>
       </c>
       <c r="F72" s="3">
-        <v>380200</v>
+        <v>2759100</v>
       </c>
       <c r="G72" s="3">
-        <v>366800</v>
+        <v>2662100</v>
       </c>
       <c r="H72" s="3">
-        <v>293100</v>
+        <v>2127500</v>
       </c>
       <c r="I72" s="3">
-        <v>174500</v>
+        <v>1266600</v>
       </c>
       <c r="J72" s="3">
-        <v>101100</v>
+        <v>733900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>535400</v>
+        <v>3886000</v>
       </c>
       <c r="E76" s="3">
-        <v>526100</v>
+        <v>3818300</v>
       </c>
       <c r="F76" s="3">
-        <v>515500</v>
+        <v>3741300</v>
       </c>
       <c r="G76" s="3">
-        <v>495800</v>
+        <v>3598500</v>
       </c>
       <c r="H76" s="3">
-        <v>419600</v>
+        <v>3045600</v>
       </c>
       <c r="I76" s="3">
-        <v>252300</v>
+        <v>1831200</v>
       </c>
       <c r="J76" s="3">
-        <v>154100</v>
+        <v>1118700</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18600</v>
+        <v>135400</v>
       </c>
       <c r="E81" s="3">
-        <v>9000</v>
+        <v>65200</v>
       </c>
       <c r="F81" s="3">
-        <v>15800</v>
+        <v>114900</v>
       </c>
       <c r="G81" s="3">
-        <v>73700</v>
+        <v>534600</v>
       </c>
       <c r="H81" s="3">
-        <v>118600</v>
+        <v>860900</v>
       </c>
       <c r="I81" s="3">
-        <v>73400</v>
+        <v>532700</v>
       </c>
       <c r="J81" s="3">
-        <v>32400</v>
+        <v>235400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>3800</v>
       </c>
       <c r="F83" s="3">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="G83" s="3">
-        <v>1500</v>
+        <v>10900</v>
       </c>
       <c r="H83" s="3">
-        <v>1800</v>
+        <v>13300</v>
       </c>
       <c r="I83" s="3">
-        <v>1500</v>
+        <v>10800</v>
       </c>
       <c r="J83" s="3">
-        <v>900</v>
+        <v>6600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>126700</v>
+        <v>919300</v>
       </c>
       <c r="E89" s="3">
-        <v>95000</v>
+        <v>689700</v>
       </c>
       <c r="F89" s="3">
-        <v>154300</v>
+        <v>1119600</v>
       </c>
       <c r="G89" s="3">
-        <v>179000</v>
+        <v>1299100</v>
       </c>
       <c r="H89" s="3">
-        <v>183600</v>
+        <v>1332700</v>
       </c>
       <c r="I89" s="3">
-        <v>177300</v>
+        <v>1286600</v>
       </c>
       <c r="J89" s="3">
-        <v>52300</v>
+        <v>379900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12400</v>
+        <v>-89900</v>
       </c>
       <c r="E91" s="3">
-        <v>-500</v>
+        <v>-3800</v>
       </c>
       <c r="F91" s="3">
-        <v>-400</v>
+        <v>-3200</v>
       </c>
       <c r="G91" s="3">
-        <v>-600</v>
+        <v>-4400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2000</v>
+        <v>-14800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2700</v>
+        <v>-19800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2100</v>
+        <v>-15200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-151300</v>
+        <v>-1098200</v>
       </c>
       <c r="E94" s="3">
-        <v>-323900</v>
+        <v>-2350600</v>
       </c>
       <c r="F94" s="3">
-        <v>72200</v>
+        <v>524100</v>
       </c>
       <c r="G94" s="3">
-        <v>680100</v>
+        <v>4936500</v>
       </c>
       <c r="H94" s="3">
-        <v>88400</v>
+        <v>641400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1320500</v>
+        <v>-9583900</v>
       </c>
       <c r="J94" s="3">
-        <v>-647600</v>
+        <v>-4700400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-39700</v>
+        <v>-288200</v>
       </c>
       <c r="E100" s="3">
-        <v>266300</v>
+        <v>1932600</v>
       </c>
       <c r="F100" s="3">
-        <v>-188400</v>
+        <v>-1367100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1060300</v>
+        <v>-7695700</v>
       </c>
       <c r="H100" s="3">
-        <v>-400</v>
+        <v>-2500</v>
       </c>
       <c r="I100" s="3">
-        <v>1275400</v>
+        <v>9256700</v>
       </c>
       <c r="J100" s="3">
-        <v>591200</v>
+        <v>4291100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1100</v>
+        <v>7800</v>
       </c>
       <c r="E101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="G101" s="3">
-        <v>500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
-        <v>-300</v>
+        <v>-2300</v>
       </c>
       <c r="J101" s="3">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-63300</v>
+        <v>-459300</v>
       </c>
       <c r="E102" s="3">
-        <v>37300</v>
+        <v>270500</v>
       </c>
       <c r="F102" s="3">
-        <v>35200</v>
+        <v>255600</v>
       </c>
       <c r="G102" s="3">
-        <v>-200600</v>
+        <v>-1456300</v>
       </c>
       <c r="H102" s="3">
-        <v>271600</v>
+        <v>1971300</v>
       </c>
       <c r="I102" s="3">
-        <v>131900</v>
+        <v>957200</v>
       </c>
       <c r="J102" s="3">
-        <v>-3700</v>
+        <v>-26900</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
